--- a/bible/nwt_xml/content.xlsx
+++ b/bible/nwt_xml/content.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="nwt" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="kjv" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="comparison" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -513,11 +515,11 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="O68" activeCellId="0" sqref="O68"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,14 +527,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="7.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -647,7 +649,7 @@
         <v>133989</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>103.6</v>
@@ -712,20 +714,37 @@
       <c r="C5" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
+      <c r="D5" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1288</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1647</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>31167</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>138153</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>44</v>
+      </c>
       <c r="K5" s="2" t="n">
         <v>103.3</v>
       </c>
       <c r="L5" s="7" t="n">
         <v>212</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="7" t="n">
+        <f aca="false">H5/L5</f>
+        <v>147.014150943396</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -737,20 +756,37 @@
       <c r="C6" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
+      <c r="D6" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>959</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1236</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>27492</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>116017</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>38</v>
+      </c>
       <c r="K6" s="2" t="n">
         <v>87.4</v>
       </c>
       <c r="L6" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="7" t="n">
+        <f aca="false">H6/L6</f>
+        <v>153.586592178771</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -762,20 +798,37 @@
       <c r="C7" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>658</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>866</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>17660</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>79934</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="K7" s="2" t="n">
         <v>56.8</v>
       </c>
       <c r="L7" s="7" t="n">
         <v>116</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="7" t="n">
+        <f aca="false">H7/L7</f>
+        <v>152.241379310345</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -787,20 +840,37 @@
       <c r="C8" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>618</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>917</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>17859</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>78689</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="K8" s="2" t="n">
         <v>59.7</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>123</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="7" t="n">
+        <f aca="false">H8/L8</f>
+        <v>145.19512195122</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -812,20 +882,37 @@
       <c r="C9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2538</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>10909</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K9" s="2" t="n">
         <v>8.9</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="7" t="n">
+        <f aca="false">H9/L9</f>
+        <v>141</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -837,20 +924,37 @@
       <c r="C10" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>810</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1206</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>24669</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>104801</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>34</v>
+      </c>
       <c r="K10" s="2" t="n">
         <v>78.9</v>
       </c>
       <c r="L10" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="7" t="n">
+        <f aca="false">H10/L10</f>
+        <v>152.277777777778</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -862,20 +966,37 @@
       <c r="C11" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>695</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1009</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>20162</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>87254</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="K11" s="2" t="n">
         <v>64.5</v>
       </c>
       <c r="L11" s="7" t="n">
         <v>132</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="7" t="n">
+        <f aca="false">H11/L11</f>
+        <v>152.742424242424</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -887,20 +1008,37 @@
       <c r="C12" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>816</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>24175</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>104103</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>33</v>
+      </c>
       <c r="K12" s="2" t="n">
         <v>78.8</v>
       </c>
       <c r="L12" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="7" t="n">
+        <f aca="false">H12/L12</f>
+        <v>149.228395061728</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -912,20 +1050,37 @@
       <c r="C13" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>719</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>23443</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>101629</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>33</v>
+      </c>
       <c r="K13" s="2" t="n">
         <v>75.5</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>155</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="7" t="n">
+        <f aca="false">H13/L13</f>
+        <v>151.245161290323</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -937,20 +1092,37 @@
       <c r="C14" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>941</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1156</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>19447</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>94344</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="K14" s="2" t="n">
         <v>71.5</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>146</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="7" t="n">
+        <f aca="false">H14/L14</f>
+        <v>133.198630136986</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -962,20 +1134,37 @@
       <c r="C15" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>822</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>25433</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>115083</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>37</v>
+      </c>
       <c r="K15" s="2" t="n">
         <v>84</v>
       </c>
       <c r="L15" s="7" t="n">
         <v>172</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="7" t="n">
+        <f aca="false">H15/L15</f>
+        <v>147.866279069767</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -987,20 +1176,37 @@
       <c r="C16" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>280</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>313</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>7066</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>32141</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="K16" s="2" t="n">
         <v>24.2</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="7" t="n">
+        <f aca="false">H16/L16</f>
+        <v>141.32</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1012,20 +1218,37 @@
       <c r="C17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>406</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>493</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>10373</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>46865</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="K17" s="2" t="n">
         <v>24.8</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="7" t="n">
+        <f aca="false">H17/L17</f>
+        <v>154.820895522388</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1037,20 +1260,37 @@
       <c r="C18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>167</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>233</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>5519</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>24511</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="K18" s="2" t="n">
         <v>13.1</v>
       </c>
       <c r="L18" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="7" t="n">
+        <f aca="false">H18/L18</f>
+        <v>157.685714285714</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -1062,20 +1302,37 @@
       <c r="C19" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1277</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>18074</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>74058</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="K19" s="2" t="n">
         <v>51.9</v>
       </c>
       <c r="L19" s="7" t="n">
         <v>140</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="7" t="n">
+        <f aca="false">H19/L19</f>
+        <v>129.1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1087,8 +1344,12 @@
       <c r="C20" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>493</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>150</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1100,7 +1361,10 @@
       <c r="L20" s="7" t="n">
         <v>371</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="7" t="n">
+        <f aca="false">H20/L20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -1112,20 +1376,37 @@
       <c r="C21" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>915</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1009</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>15142</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>64690</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="K21" s="2" t="n">
         <v>48.4</v>
       </c>
       <c r="L21" s="7" t="n">
         <v>131</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="7" t="n">
+        <f aca="false">H21/L21</f>
+        <v>115.587786259542</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1137,20 +1418,37 @@
       <c r="C22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>222</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>5701</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>22900</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="K22" s="2" t="n">
         <v>15.8</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="7" t="n">
+        <f aca="false">H22/L22</f>
+        <v>135.738095238095</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -2303,31 +2601,31 @@
       </c>
       <c r="D68" s="6" t="n">
         <f aca="false">SUM(D2:D67)</f>
-        <v>885</v>
+        <v>3904</v>
       </c>
       <c r="E68" s="6" t="n">
         <f aca="false">SUM(E2:E67)</f>
-        <v>125</v>
+        <v>679</v>
       </c>
       <c r="F68" s="6" t="n">
         <f aca="false">SUM(F2:F67)</f>
-        <v>3722</v>
+        <v>15193</v>
       </c>
       <c r="G68" s="6" t="n">
         <f aca="false">SUM(G2:G67)</f>
-        <v>5096</v>
+        <v>20104</v>
       </c>
       <c r="H68" s="6" t="n">
         <f aca="false">SUM(H2:H67)</f>
-        <v>97148</v>
+        <v>393068</v>
       </c>
       <c r="I68" s="6" t="n">
         <f aca="false">SUM(I2:I67)</f>
-        <v>409453</v>
+        <v>1705534</v>
       </c>
       <c r="J68" s="6" t="n">
         <f aca="false">SUM(J2:J67)</f>
-        <v>135</v>
+        <v>551</v>
       </c>
       <c r="K68" s="6" t="n">
         <f aca="false">SUM(K2:K67)</f>
@@ -2339,7 +2637,7 @@
       </c>
       <c r="M68" s="7" t="n">
         <f aca="false">H68/L68</f>
-        <v>17.4946875562759</v>
+        <v>70.7848010084639</v>
       </c>
     </row>
   </sheetData>
@@ -2351,4 +2649,50 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bible/nwt_xml/content.xlsx
+++ b/bible/nwt_xml/content.xlsx
@@ -515,11 +515,11 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="J69" activeCellId="0" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +530,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="7.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.83"/>
@@ -1350,11 +1351,21 @@
       <c r="E20" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
+      <c r="F20" s="6" t="n">
+        <v>2461</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3245</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>42286</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>176210</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>58</v>
+      </c>
       <c r="K20" s="2" t="n">
         <v>139.6</v>
       </c>
@@ -1363,7 +1374,7 @@
       </c>
       <c r="M20" s="7" t="n">
         <f aca="false">H20/L20</f>
-        <v>0</v>
+        <v>113.978436657682</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2609,23 +2620,23 @@
       </c>
       <c r="F68" s="6" t="n">
         <f aca="false">SUM(F2:F67)</f>
-        <v>15193</v>
+        <v>17654</v>
       </c>
       <c r="G68" s="6" t="n">
         <f aca="false">SUM(G2:G67)</f>
-        <v>20104</v>
+        <v>23349</v>
       </c>
       <c r="H68" s="6" t="n">
         <f aca="false">SUM(H2:H67)</f>
-        <v>393068</v>
+        <v>435354</v>
       </c>
       <c r="I68" s="6" t="n">
         <f aca="false">SUM(I2:I67)</f>
-        <v>1705534</v>
+        <v>1881744</v>
       </c>
       <c r="J68" s="6" t="n">
         <f aca="false">SUM(J2:J67)</f>
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="K68" s="6" t="n">
         <f aca="false">SUM(K2:K67)</f>
@@ -2637,7 +2648,7 @@
       </c>
       <c r="M68" s="7" t="n">
         <f aca="false">H68/L68</f>
-        <v>70.7848010084639</v>
+        <v>78.3997839005943</v>
       </c>
     </row>
   </sheetData>

--- a/bible/nwt_xml/content.xlsx
+++ b/bible/nwt_xml/content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nwt" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
   <si>
     <t xml:space="preserve">nr</t>
   </si>
@@ -260,6 +260,15 @@
   <si>
     <t xml:space="preserve">Revelation</t>
   </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJV</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +279,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -313,13 +322,44 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +429,62 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +494,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDEE6EF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -514,12 +670,12 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="J69" activeCellId="0" sqref="J69"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,8 +1669,12 @@
       <c r="C24" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>321</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>66</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1538,8 +1698,12 @@
       <c r="C25" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>52</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1563,8 +1727,12 @@
       <c r="C26" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1588,8 +1756,12 @@
       <c r="C27" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>48</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1613,8 +1785,12 @@
       <c r="C28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1638,8 +1814,12 @@
       <c r="C29" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1663,8 +1843,12 @@
       <c r="C30" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1688,8 +1872,12 @@
       <c r="C31" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1713,8 +1901,12 @@
       <c r="C32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1738,8 +1930,12 @@
       <c r="C33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1763,8 +1959,12 @@
       <c r="C34" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1788,8 +1988,12 @@
       <c r="C35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1813,8 +2017,12 @@
       <c r="C36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1838,8 +2046,12 @@
       <c r="C37" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1863,8 +2075,12 @@
       <c r="C38" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1888,8 +2104,12 @@
       <c r="C39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1913,8 +2133,12 @@
       <c r="C40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1938,8 +2162,12 @@
       <c r="C41" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1963,8 +2191,12 @@
       <c r="C42" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1988,8 +2220,12 @@
       <c r="C43" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2013,8 +2249,12 @@
       <c r="C44" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -2038,8 +2278,12 @@
       <c r="C45" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -2063,8 +2307,12 @@
       <c r="C46" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -2088,8 +2336,12 @@
       <c r="C47" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -2113,8 +2365,12 @@
       <c r="C48" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2138,8 +2394,12 @@
       <c r="C49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -2163,8 +2423,12 @@
       <c r="C50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -2188,8 +2452,12 @@
       <c r="C51" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -2213,8 +2481,12 @@
       <c r="C52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2238,8 +2510,12 @@
       <c r="C53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2263,8 +2539,12 @@
       <c r="C54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -2288,8 +2568,12 @@
       <c r="C55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2313,8 +2597,12 @@
       <c r="C56" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2338,8 +2626,12 @@
       <c r="C57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2363,8 +2655,12 @@
       <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2388,8 +2684,12 @@
       <c r="C59" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2413,8 +2713,12 @@
       <c r="C60" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="D60" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2438,8 +2742,12 @@
       <c r="C61" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2463,8 +2771,12 @@
       <c r="C62" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2488,8 +2800,12 @@
       <c r="C63" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2513,8 +2829,12 @@
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2538,8 +2858,12 @@
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -2563,8 +2887,12 @@
       <c r="C66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -2588,8 +2916,12 @@
       <c r="C67" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>22</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -2612,11 +2944,11 @@
       </c>
       <c r="D68" s="6" t="n">
         <f aca="false">SUM(D2:D67)</f>
-        <v>3904</v>
+        <v>6894</v>
       </c>
       <c r="E68" s="6" t="n">
         <f aca="false">SUM(E2:E67)</f>
-        <v>679</v>
+        <v>1189</v>
       </c>
       <c r="F68" s="6" t="n">
         <f aca="false">SUM(F2:F67)</f>
@@ -2667,14 +2999,1598 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>1533</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>38290</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>151857</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>1288</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>32695</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>131775</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>859</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>872</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>24546</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>98922</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>32928</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>137901</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>959</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>999</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>28387</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>114018</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>658</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>699</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>18862</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>78372</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>618</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>753</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>18985</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>76851</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>114</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>2577</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>810</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>25066</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>100211</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>695</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>915</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>20620</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>82497</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>816</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>951</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>24538</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>98713</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>719</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>943</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>23538</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>93631</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>942</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>20383</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>86625</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>822</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>934</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>26093</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>109303</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>7445</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>31705</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>406</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>466</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>10489</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>44705</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>5645</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>23748</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>18149</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>73266</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>2461</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>2664</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>42727</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>173959</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>915</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>946</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>15046</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>62676</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>222</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>5588</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>21972</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>117</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>2666</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>10548</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>1292</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>37086</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>150992</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>1364</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>42720</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>174386</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>154</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>166</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>3421</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>14173</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>39423</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>160049</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>357</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>384</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>11605</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>48438</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>197</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>215</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>5178</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>21122</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>2035</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>8359</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>173</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>4220</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>16989</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>674</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>2823</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>5087</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>3155</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>12719</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>5423</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>6217</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>6643</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>211</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>239</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>6445</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>25549</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>87</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>1782</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>7125</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="C41" s="10" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>23717</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>96656</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10" t="n">
+        <v>678</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>777</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>15192</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>61338</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" s="10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>25999</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>104336</v>
+      </c>
+      <c r="G43" s="10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10" t="n">
+        <v>879</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>1034</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>19146</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>75533</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="C45" s="10" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>24277</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>101726</v>
+      </c>
+      <c r="G45" s="10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="10" t="n">
+        <v>433</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>536</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>9454</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>39320</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" s="10" t="n">
+        <v>437</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>528</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>9474</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>37943</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="n">
+        <v>257</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>287</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>6089</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>24982</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10" t="n">
+        <v>149</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>162</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>12652</v>
+      </c>
+      <c r="G49" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>158</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>3030</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>12832</v>
+      </c>
+      <c r="G50" s="10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>2185</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>9031</v>
+      </c>
+      <c r="G51" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>8422</v>
+      </c>
+      <c r="G52" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>1837</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>7543</v>
+      </c>
+      <c r="G53" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>4277</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>2251</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>10068</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>7246</v>
+      </c>
+      <c r="G56" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="E57" s="10" t="n">
+        <v>898</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>4067</v>
+      </c>
+      <c r="G57" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>430</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1817</v>
+      </c>
+      <c r="G58" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" s="10" t="n">
+        <v>303</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>319</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>6915</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>29336</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>2307</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>9433</v>
+      </c>
+      <c r="G60" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>2478</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>10589</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>6940</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>126</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>2519</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>9848</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>298</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>1204</v>
+      </c>
+      <c r="G64" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>609</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>2812</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C67" s="10" t="n">
+        <v>404</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>460</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>12003</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>48251</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="10" t="n">
+        <f aca="false">SUM(B2:B67)</f>
+        <v>1189</v>
+      </c>
+      <c r="C68" s="10" t="n">
+        <f aca="false">SUM(C2:C67)</f>
+        <v>31102</v>
+      </c>
+      <c r="D68" s="10" t="n">
+        <f aca="false">SUM(D2:D67)</f>
+        <v>35049</v>
+      </c>
+      <c r="E68" s="10" t="n">
+        <f aca="false">SUM(E2:E67)</f>
+        <v>790573</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <f aca="false">SUM(F2:F67)</f>
+        <v>3223201</v>
+      </c>
+      <c r="G68" s="10" t="n">
+        <f aca="false">SUM(G2:G67)</f>
+        <v>1061</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2690,14 +4606,4254 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q69" activeCellId="0" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>1533</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>2116</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>38766</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>163742</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>1533</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>1716</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>38290</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>151857</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="n">
+        <f aca="false">I2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <f aca="false">J2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <f aca="false">K2-D2</f>
+        <v>-400</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <f aca="false">L2-E2</f>
+        <v>-476</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <f aca="false">M2-F2</f>
+        <v>-11885</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <f aca="false">N2-G2</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>31831</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>133989</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>1213</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>1288</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>32695</v>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>131775</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="15" t="n">
+        <f aca="false">I3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="n">
+        <f aca="false">J3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="15" t="n">
+        <f aca="false">K3-D3</f>
+        <v>-322</v>
+      </c>
+      <c r="S3" s="15" t="n">
+        <f aca="false">L3-E3</f>
+        <v>864</v>
+      </c>
+      <c r="T3" s="15" t="n">
+        <f aca="false">M3-F3</f>
+        <v>-2214</v>
+      </c>
+      <c r="U3" s="15" t="n">
+        <f aca="false">N3-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>859</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>1164</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>23797</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>100203</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>859</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>872</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>24546</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>98922</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15" t="n">
+        <f aca="false">I4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15" t="n">
+        <f aca="false">J4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="n">
+        <f aca="false">K4-D4</f>
+        <v>-292</v>
+      </c>
+      <c r="S4" s="15" t="n">
+        <f aca="false">L4-E4</f>
+        <v>749</v>
+      </c>
+      <c r="T4" s="15" t="n">
+        <f aca="false">M4-F4</f>
+        <v>-1281</v>
+      </c>
+      <c r="U4" s="15" t="n">
+        <f aca="false">N4-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>1647</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>31167</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>138153</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>1288</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>1349</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>32928</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>137901</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15" t="n">
+        <f aca="false">I5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15" t="n">
+        <f aca="false">J5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15" t="n">
+        <f aca="false">K5-D5</f>
+        <v>-298</v>
+      </c>
+      <c r="S5" s="15" t="n">
+        <f aca="false">L5-E5</f>
+        <v>1761</v>
+      </c>
+      <c r="T5" s="15" t="n">
+        <f aca="false">M5-F5</f>
+        <v>-252</v>
+      </c>
+      <c r="U5" s="15" t="n">
+        <f aca="false">N5-G5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>959</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>27492</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>116017</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>38</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>959</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>999</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>28387</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>114018</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15" t="n">
+        <f aca="false">I6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15" t="n">
+        <f aca="false">J6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15" t="n">
+        <f aca="false">K6-D6</f>
+        <v>-237</v>
+      </c>
+      <c r="S6" s="15" t="n">
+        <f aca="false">L6-E6</f>
+        <v>895</v>
+      </c>
+      <c r="T6" s="15" t="n">
+        <f aca="false">M6-F6</f>
+        <v>-1999</v>
+      </c>
+      <c r="U6" s="15" t="n">
+        <f aca="false">N6-G6</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>658</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>866</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>17660</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>79934</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>658</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>699</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>18862</v>
+      </c>
+      <c r="M7" s="10" t="n">
+        <v>78372</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15" t="n">
+        <f aca="false">I7-B7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <f aca="false">J7-C7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <f aca="false">K7-D7</f>
+        <v>-167</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <f aca="false">L7-E7</f>
+        <v>1202</v>
+      </c>
+      <c r="T7" s="15" t="n">
+        <f aca="false">M7-F7</f>
+        <v>-1562</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <f aca="false">N7-G7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>618</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>917</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>17859</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>78689</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>618</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>753</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>18985</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>76851</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15" t="n">
+        <f aca="false">I8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15" t="n">
+        <f aca="false">J8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="15" t="n">
+        <f aca="false">K8-D8</f>
+        <v>-164</v>
+      </c>
+      <c r="S8" s="15" t="n">
+        <f aca="false">L8-E8</f>
+        <v>1126</v>
+      </c>
+      <c r="T8" s="15" t="n">
+        <f aca="false">M8-F8</f>
+        <v>-1838</v>
+      </c>
+      <c r="U8" s="15" t="n">
+        <f aca="false">N8-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>142</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2538</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>10909</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>114</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>2577</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15" t="n">
+        <f aca="false">I9-B9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="n">
+        <f aca="false">J9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="15" t="n">
+        <f aca="false">K9-D9</f>
+        <v>-28</v>
+      </c>
+      <c r="S9" s="15" t="n">
+        <f aca="false">L9-E9</f>
+        <v>39</v>
+      </c>
+      <c r="T9" s="15" t="n">
+        <f aca="false">M9-F9</f>
+        <v>-909</v>
+      </c>
+      <c r="U9" s="15" t="n">
+        <f aca="false">N9-G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>810</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>24669</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>104801</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>34</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>810</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>1065</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>25066</v>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>100211</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15" t="n">
+        <f aca="false">I10-B10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15" t="n">
+        <f aca="false">J10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="n">
+        <f aca="false">K10-D10</f>
+        <v>-141</v>
+      </c>
+      <c r="S10" s="15" t="n">
+        <f aca="false">L10-E10</f>
+        <v>397</v>
+      </c>
+      <c r="T10" s="15" t="n">
+        <f aca="false">M10-F10</f>
+        <v>-4590</v>
+      </c>
+      <c r="U10" s="15" t="n">
+        <f aca="false">N10-G10</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>695</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>20162</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>87254</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>695</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>915</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>20620</v>
+      </c>
+      <c r="M11" s="10" t="n">
+        <v>82497</v>
+      </c>
+      <c r="N11" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="15" t="n">
+        <f aca="false">I11-B11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15" t="n">
+        <f aca="false">J11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <f aca="false">K11-D11</f>
+        <v>-94</v>
+      </c>
+      <c r="S11" s="15" t="n">
+        <f aca="false">L11-E11</f>
+        <v>458</v>
+      </c>
+      <c r="T11" s="15" t="n">
+        <f aca="false">M11-F11</f>
+        <v>-4757</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <f aca="false">N11-G11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>816</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>24175</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>104103</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>816</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>951</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>24538</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>98713</v>
+      </c>
+      <c r="N12" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15" t="n">
+        <f aca="false">I12-B12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15" t="n">
+        <f aca="false">J12-C12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <f aca="false">K12-D12</f>
+        <v>-139</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <f aca="false">L12-E12</f>
+        <v>363</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <f aca="false">M12-F12</f>
+        <v>-5390</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <f aca="false">N12-G12</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>719</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>23443</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>101629</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>719</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>943</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>23538</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>93631</v>
+      </c>
+      <c r="N13" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="15" t="n">
+        <f aca="false">I13-B13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15" t="n">
+        <f aca="false">J13-C13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15" t="n">
+        <f aca="false">K13-D13</f>
+        <v>-103</v>
+      </c>
+      <c r="S13" s="15" t="n">
+        <f aca="false">L13-E13</f>
+        <v>95</v>
+      </c>
+      <c r="T13" s="15" t="n">
+        <f aca="false">M13-F13</f>
+        <v>-7998</v>
+      </c>
+      <c r="U13" s="15" t="n">
+        <f aca="false">N13-G13</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>941</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>1156</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>19447</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>94344</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>942</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1054</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>20383</v>
+      </c>
+      <c r="M14" s="10" t="n">
+        <v>86625</v>
+      </c>
+      <c r="N14" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="15" t="n">
+        <f aca="false">I14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15" t="n">
+        <f aca="false">J14-C14</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="15" t="n">
+        <f aca="false">K14-D14</f>
+        <v>-102</v>
+      </c>
+      <c r="S14" s="15" t="n">
+        <f aca="false">L14-E14</f>
+        <v>936</v>
+      </c>
+      <c r="T14" s="15" t="n">
+        <f aca="false">M14-F14</f>
+        <v>-7719</v>
+      </c>
+      <c r="U14" s="15" t="n">
+        <f aca="false">N14-G14</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>822</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>25433</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>115083</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>822</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>934</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>26093</v>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>109303</v>
+      </c>
+      <c r="N15" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15" t="n">
+        <f aca="false">I15-B15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15" t="n">
+        <f aca="false">J15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="15" t="n">
+        <f aca="false">K15-D15</f>
+        <v>-134</v>
+      </c>
+      <c r="S15" s="15" t="n">
+        <f aca="false">L15-E15</f>
+        <v>660</v>
+      </c>
+      <c r="T15" s="15" t="n">
+        <f aca="false">M15-F15</f>
+        <v>-5780</v>
+      </c>
+      <c r="U15" s="15" t="n">
+        <f aca="false">N15-G15</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>280</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>313</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>7066</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>32141</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>7445</v>
+      </c>
+      <c r="M16" s="10" t="n">
+        <v>31705</v>
+      </c>
+      <c r="N16" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="15" t="n">
+        <f aca="false">I16-B16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15" t="n">
+        <f aca="false">J16-C16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="15" t="n">
+        <f aca="false">K16-D16</f>
+        <v>-19</v>
+      </c>
+      <c r="S16" s="15" t="n">
+        <f aca="false">L16-E16</f>
+        <v>379</v>
+      </c>
+      <c r="T16" s="15" t="n">
+        <f aca="false">M16-F16</f>
+        <v>-436</v>
+      </c>
+      <c r="U16" s="15" t="n">
+        <f aca="false">N16-G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>493</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>10373</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>46865</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>406</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>466</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>10489</v>
+      </c>
+      <c r="M17" s="10" t="n">
+        <v>44705</v>
+      </c>
+      <c r="N17" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="15" t="n">
+        <f aca="false">I17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15" t="n">
+        <f aca="false">J17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="15" t="n">
+        <f aca="false">K17-D17</f>
+        <v>-27</v>
+      </c>
+      <c r="S17" s="15" t="n">
+        <f aca="false">L17-E17</f>
+        <v>116</v>
+      </c>
+      <c r="T17" s="15" t="n">
+        <f aca="false">M17-F17</f>
+        <v>-2160</v>
+      </c>
+      <c r="U17" s="15" t="n">
+        <f aca="false">N17-G17</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>167</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>233</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>5519</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>24511</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>5645</v>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>23748</v>
+      </c>
+      <c r="N18" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="15" t="n">
+        <f aca="false">I18-B18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="n">
+        <f aca="false">J18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="n">
+        <f aca="false">K18-D18</f>
+        <v>-28</v>
+      </c>
+      <c r="S18" s="15" t="n">
+        <f aca="false">L18-E18</f>
+        <v>126</v>
+      </c>
+      <c r="T18" s="15" t="n">
+        <f aca="false">M18-F18</f>
+        <v>-763</v>
+      </c>
+      <c r="U18" s="15" t="n">
+        <f aca="false">N18-G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>1277</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>18074</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>74058</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>1070</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>1230</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>18149</v>
+      </c>
+      <c r="M19" s="10" t="n">
+        <v>73266</v>
+      </c>
+      <c r="N19" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="15" t="n">
+        <f aca="false">I19-B19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15" t="n">
+        <f aca="false">J19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15" t="n">
+        <f aca="false">K19-D19</f>
+        <v>-47</v>
+      </c>
+      <c r="S19" s="15" t="n">
+        <f aca="false">L19-E19</f>
+        <v>75</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <f aca="false">M19-F19</f>
+        <v>-792</v>
+      </c>
+      <c r="U19" s="15" t="n">
+        <f aca="false">N19-G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>2461</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>3245</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>42286</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>176210</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>2461</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>2664</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>42727</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>173959</v>
+      </c>
+      <c r="N20" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="15" t="n">
+        <f aca="false">I20-B20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15" t="n">
+        <f aca="false">J20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="n">
+        <f aca="false">K20-D20</f>
+        <v>-581</v>
+      </c>
+      <c r="S20" s="15" t="n">
+        <f aca="false">L20-E20</f>
+        <v>441</v>
+      </c>
+      <c r="T20" s="15" t="n">
+        <f aca="false">M20-F20</f>
+        <v>-2251</v>
+      </c>
+      <c r="U20" s="15" t="n">
+        <f aca="false">N20-G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>915</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>15142</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>64690</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>915</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>946</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>15046</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>62676</v>
+      </c>
+      <c r="N21" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="15" t="n">
+        <f aca="false">I21-B21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15" t="n">
+        <f aca="false">J21-C21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15" t="n">
+        <f aca="false">K21-D21</f>
+        <v>-63</v>
+      </c>
+      <c r="S21" s="15" t="n">
+        <f aca="false">L21-E21</f>
+        <v>-96</v>
+      </c>
+      <c r="T21" s="15" t="n">
+        <f aca="false">M21-F21</f>
+        <v>-2014</v>
+      </c>
+      <c r="U21" s="15" t="n">
+        <f aca="false">N21-G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>222</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>5701</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>22900</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>5588</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>21972</v>
+      </c>
+      <c r="N22" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="15" t="n">
+        <f aca="false">I22-B22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15" t="n">
+        <f aca="false">J22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15" t="n">
+        <f aca="false">K22-D22</f>
+        <v>-58</v>
+      </c>
+      <c r="S22" s="15" t="n">
+        <f aca="false">L22-E22</f>
+        <v>-113</v>
+      </c>
+      <c r="T22" s="15" t="n">
+        <f aca="false">M22-F22</f>
+        <v>-928</v>
+      </c>
+      <c r="U22" s="15" t="n">
+        <f aca="false">N22-G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>206</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>2754</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>11519</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>117</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>2666</v>
+      </c>
+      <c r="M23" s="10" t="n">
+        <v>10548</v>
+      </c>
+      <c r="N23" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="15" t="n">
+        <f aca="false">I23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15" t="n">
+        <f aca="false">J23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15" t="n">
+        <f aca="false">K23-D23</f>
+        <v>-72</v>
+      </c>
+      <c r="S23" s="15" t="n">
+        <f aca="false">L23-E23</f>
+        <v>-88</v>
+      </c>
+      <c r="T23" s="15" t="n">
+        <f aca="false">M23-F23</f>
+        <v>-971</v>
+      </c>
+      <c r="U23" s="15" t="n">
+        <f aca="false">N23-G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>1292</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>1474</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>37086</v>
+      </c>
+      <c r="M24" s="10" t="n">
+        <v>150992</v>
+      </c>
+      <c r="N24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="15" t="n">
+        <f aca="false">I24-B24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15" t="n">
+        <f aca="false">J24-C24</f>
+        <v>1292</v>
+      </c>
+      <c r="R24" s="15" t="n">
+        <f aca="false">K24-D24</f>
+        <v>1474</v>
+      </c>
+      <c r="S24" s="15" t="n">
+        <f aca="false">L24-E24</f>
+        <v>37086</v>
+      </c>
+      <c r="T24" s="15" t="n">
+        <f aca="false">M24-F24</f>
+        <v>150992</v>
+      </c>
+      <c r="U24" s="15" t="n">
+        <f aca="false">N24-G24</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <v>1364</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>1564</v>
+      </c>
+      <c r="L25" s="10" t="n">
+        <v>42720</v>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>174386</v>
+      </c>
+      <c r="N25" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="15" t="n">
+        <f aca="false">I25-B25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15" t="n">
+        <f aca="false">J25-C25</f>
+        <v>1364</v>
+      </c>
+      <c r="R25" s="15" t="n">
+        <f aca="false">K25-D25</f>
+        <v>1564</v>
+      </c>
+      <c r="S25" s="15" t="n">
+        <f aca="false">L25-E25</f>
+        <v>42720</v>
+      </c>
+      <c r="T25" s="15" t="n">
+        <f aca="false">M25-F25</f>
+        <v>174386</v>
+      </c>
+      <c r="U25" s="15" t="n">
+        <f aca="false">N25-G25</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <v>154</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>166</v>
+      </c>
+      <c r="L26" s="10" t="n">
+        <v>3421</v>
+      </c>
+      <c r="M26" s="10" t="n">
+        <v>14173</v>
+      </c>
+      <c r="N26" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="15" t="n">
+        <f aca="false">I26-B26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15" t="n">
+        <f aca="false">J26-C26</f>
+        <v>154</v>
+      </c>
+      <c r="R26" s="15" t="n">
+        <f aca="false">K26-D26</f>
+        <v>166</v>
+      </c>
+      <c r="S26" s="15" t="n">
+        <f aca="false">L26-E26</f>
+        <v>3421</v>
+      </c>
+      <c r="T26" s="15" t="n">
+        <f aca="false">M26-F26</f>
+        <v>14173</v>
+      </c>
+      <c r="U26" s="15" t="n">
+        <f aca="false">N26-G26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>1364</v>
+      </c>
+      <c r="L27" s="10" t="n">
+        <v>39423</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>160049</v>
+      </c>
+      <c r="N27" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="15" t="n">
+        <f aca="false">I27-B27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15" t="n">
+        <f aca="false">J27-C27</f>
+        <v>1273</v>
+      </c>
+      <c r="R27" s="15" t="n">
+        <f aca="false">K27-D27</f>
+        <v>1364</v>
+      </c>
+      <c r="S27" s="15" t="n">
+        <f aca="false">L27-E27</f>
+        <v>39423</v>
+      </c>
+      <c r="T27" s="15" t="n">
+        <f aca="false">M27-F27</f>
+        <v>160049</v>
+      </c>
+      <c r="U27" s="15" t="n">
+        <f aca="false">N27-G27</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>357</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>384</v>
+      </c>
+      <c r="L28" s="10" t="n">
+        <v>11605</v>
+      </c>
+      <c r="M28" s="10" t="n">
+        <v>48438</v>
+      </c>
+      <c r="N28" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="15" t="n">
+        <f aca="false">I28-B28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15" t="n">
+        <f aca="false">J28-C28</f>
+        <v>357</v>
+      </c>
+      <c r="R28" s="15" t="n">
+        <f aca="false">K28-D28</f>
+        <v>384</v>
+      </c>
+      <c r="S28" s="15" t="n">
+        <f aca="false">L28-E28</f>
+        <v>11605</v>
+      </c>
+      <c r="T28" s="15" t="n">
+        <f aca="false">M28-F28</f>
+        <v>48438</v>
+      </c>
+      <c r="U28" s="15" t="n">
+        <f aca="false">N28-G28</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>197</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>215</v>
+      </c>
+      <c r="L29" s="10" t="n">
+        <v>5178</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>21122</v>
+      </c>
+      <c r="N29" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="15" t="n">
+        <f aca="false">I29-B29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15" t="n">
+        <f aca="false">J29-C29</f>
+        <v>197</v>
+      </c>
+      <c r="R29" s="15" t="n">
+        <f aca="false">K29-D29</f>
+        <v>215</v>
+      </c>
+      <c r="S29" s="15" t="n">
+        <f aca="false">L29-E29</f>
+        <v>5178</v>
+      </c>
+      <c r="T29" s="15" t="n">
+        <f aca="false">M29-F29</f>
+        <v>21122</v>
+      </c>
+      <c r="U29" s="15" t="n">
+        <f aca="false">N29-G29</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="L30" s="10" t="n">
+        <v>2035</v>
+      </c>
+      <c r="M30" s="10" t="n">
+        <v>8359</v>
+      </c>
+      <c r="N30" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="15" t="n">
+        <f aca="false">I30-B30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15" t="n">
+        <f aca="false">J30-C30</f>
+        <v>73</v>
+      </c>
+      <c r="R30" s="15" t="n">
+        <f aca="false">K30-D30</f>
+        <v>78</v>
+      </c>
+      <c r="S30" s="15" t="n">
+        <f aca="false">L30-E30</f>
+        <v>2035</v>
+      </c>
+      <c r="T30" s="15" t="n">
+        <f aca="false">M30-F30</f>
+        <v>8359</v>
+      </c>
+      <c r="U30" s="15" t="n">
+        <f aca="false">N30-G30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>173</v>
+      </c>
+      <c r="L31" s="10" t="n">
+        <v>4220</v>
+      </c>
+      <c r="M31" s="10" t="n">
+        <v>16989</v>
+      </c>
+      <c r="N31" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="15" t="n">
+        <f aca="false">I31-B31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15" t="n">
+        <f aca="false">J31-C31</f>
+        <v>146</v>
+      </c>
+      <c r="R31" s="15" t="n">
+        <f aca="false">K31-D31</f>
+        <v>173</v>
+      </c>
+      <c r="S31" s="15" t="n">
+        <f aca="false">L31-E31</f>
+        <v>4220</v>
+      </c>
+      <c r="T31" s="15" t="n">
+        <f aca="false">M31-F31</f>
+        <v>16989</v>
+      </c>
+      <c r="U31" s="15" t="n">
+        <f aca="false">N31-G31</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="L32" s="10" t="n">
+        <v>674</v>
+      </c>
+      <c r="M32" s="10" t="n">
+        <v>2823</v>
+      </c>
+      <c r="N32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="15" t="n">
+        <f aca="false">I32-B32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15" t="n">
+        <f aca="false">J32-C32</f>
+        <v>21</v>
+      </c>
+      <c r="R32" s="15" t="n">
+        <f aca="false">K32-D32</f>
+        <v>25</v>
+      </c>
+      <c r="S32" s="15" t="n">
+        <f aca="false">L32-E32</f>
+        <v>674</v>
+      </c>
+      <c r="T32" s="15" t="n">
+        <f aca="false">M32-F32</f>
+        <v>2823</v>
+      </c>
+      <c r="U32" s="15" t="n">
+        <f aca="false">N32-G32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="L33" s="10" t="n">
+        <v>1321</v>
+      </c>
+      <c r="M33" s="10" t="n">
+        <v>5087</v>
+      </c>
+      <c r="N33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="15" t="n">
+        <f aca="false">I33-B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15" t="n">
+        <f aca="false">J33-C33</f>
+        <v>48</v>
+      </c>
+      <c r="R33" s="15" t="n">
+        <f aca="false">K33-D33</f>
+        <v>62</v>
+      </c>
+      <c r="S33" s="15" t="n">
+        <f aca="false">L33-E33</f>
+        <v>1321</v>
+      </c>
+      <c r="T33" s="15" t="n">
+        <f aca="false">M33-F33</f>
+        <v>5087</v>
+      </c>
+      <c r="U33" s="15" t="n">
+        <f aca="false">N33-G33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="L34" s="10" t="n">
+        <v>3155</v>
+      </c>
+      <c r="M34" s="10" t="n">
+        <v>12719</v>
+      </c>
+      <c r="N34" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="15" t="n">
+        <f aca="false">I34-B34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15" t="n">
+        <f aca="false">J34-C34</f>
+        <v>105</v>
+      </c>
+      <c r="R34" s="15" t="n">
+        <f aca="false">K34-D34</f>
+        <v>124</v>
+      </c>
+      <c r="S34" s="15" t="n">
+        <f aca="false">L34-E34</f>
+        <v>3155</v>
+      </c>
+      <c r="T34" s="15" t="n">
+        <f aca="false">M34-F34</f>
+        <v>12719</v>
+      </c>
+      <c r="U34" s="15" t="n">
+        <f aca="false">N34-G34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <v>1286</v>
+      </c>
+      <c r="M35" s="10" t="n">
+        <v>5423</v>
+      </c>
+      <c r="N35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="15" t="n">
+        <f aca="false">I35-B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15" t="n">
+        <f aca="false">J35-C35</f>
+        <v>47</v>
+      </c>
+      <c r="R35" s="15" t="n">
+        <f aca="false">K35-D35</f>
+        <v>56</v>
+      </c>
+      <c r="S35" s="15" t="n">
+        <f aca="false">L35-E35</f>
+        <v>1286</v>
+      </c>
+      <c r="T35" s="15" t="n">
+        <f aca="false">M35-F35</f>
+        <v>5423</v>
+      </c>
+      <c r="U35" s="15" t="n">
+        <f aca="false">N35-G35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="L36" s="10" t="n">
+        <v>1484</v>
+      </c>
+      <c r="M36" s="10" t="n">
+        <v>6217</v>
+      </c>
+      <c r="N36" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="15" t="n">
+        <f aca="false">I36-B36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15" t="n">
+        <f aca="false">J36-C36</f>
+        <v>56</v>
+      </c>
+      <c r="R36" s="15" t="n">
+        <f aca="false">K36-D36</f>
+        <v>71</v>
+      </c>
+      <c r="S36" s="15" t="n">
+        <f aca="false">L36-E36</f>
+        <v>1484</v>
+      </c>
+      <c r="T36" s="15" t="n">
+        <f aca="false">M36-F36</f>
+        <v>6217</v>
+      </c>
+      <c r="U36" s="15" t="n">
+        <f aca="false">N36-G36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="L37" s="10" t="n">
+        <v>1620</v>
+      </c>
+      <c r="M37" s="10" t="n">
+        <v>6643</v>
+      </c>
+      <c r="N37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="15" t="n">
+        <f aca="false">I37-B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15" t="n">
+        <f aca="false">J37-C37</f>
+        <v>53</v>
+      </c>
+      <c r="R37" s="15" t="n">
+        <f aca="false">K37-D37</f>
+        <v>55</v>
+      </c>
+      <c r="S37" s="15" t="n">
+        <f aca="false">L37-E37</f>
+        <v>1620</v>
+      </c>
+      <c r="T37" s="15" t="n">
+        <f aca="false">M37-F37</f>
+        <v>6643</v>
+      </c>
+      <c r="U37" s="15" t="n">
+        <f aca="false">N37-G37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="L38" s="10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M38" s="10" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="15" t="n">
+        <f aca="false">I38-B38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15" t="n">
+        <f aca="false">J38-C38</f>
+        <v>38</v>
+      </c>
+      <c r="R38" s="15" t="n">
+        <f aca="false">K38-D38</f>
+        <v>46</v>
+      </c>
+      <c r="S38" s="15" t="n">
+        <f aca="false">L38-E38</f>
+        <v>1130</v>
+      </c>
+      <c r="T38" s="15" t="n">
+        <f aca="false">M38-F38</f>
+        <v>4400</v>
+      </c>
+      <c r="U38" s="15" t="n">
+        <f aca="false">N38-G38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>211</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>239</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>6445</v>
+      </c>
+      <c r="M39" s="10" t="n">
+        <v>25549</v>
+      </c>
+      <c r="N39" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="15" t="n">
+        <f aca="false">I39-B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15" t="n">
+        <f aca="false">J39-C39</f>
+        <v>211</v>
+      </c>
+      <c r="R39" s="15" t="n">
+        <f aca="false">K39-D39</f>
+        <v>239</v>
+      </c>
+      <c r="S39" s="15" t="n">
+        <f aca="false">L39-E39</f>
+        <v>6445</v>
+      </c>
+      <c r="T39" s="15" t="n">
+        <f aca="false">M39-F39</f>
+        <v>25549</v>
+      </c>
+      <c r="U39" s="15" t="n">
+        <f aca="false">N39-G39</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>87</v>
+      </c>
+      <c r="L40" s="10" t="n">
+        <v>1782</v>
+      </c>
+      <c r="M40" s="10" t="n">
+        <v>7125</v>
+      </c>
+      <c r="N40" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="15" t="n">
+        <f aca="false">I40-B40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15" t="n">
+        <f aca="false">J40-C40</f>
+        <v>55</v>
+      </c>
+      <c r="R40" s="15" t="n">
+        <f aca="false">K40-D40</f>
+        <v>87</v>
+      </c>
+      <c r="S40" s="15" t="n">
+        <f aca="false">L40-E40</f>
+        <v>1782</v>
+      </c>
+      <c r="T40" s="15" t="n">
+        <f aca="false">M40-F40</f>
+        <v>7125</v>
+      </c>
+      <c r="U40" s="15" t="n">
+        <f aca="false">N40-G40</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J41" s="10" t="n">
+        <v>1071</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>1221</v>
+      </c>
+      <c r="L41" s="10" t="n">
+        <v>23717</v>
+      </c>
+      <c r="M41" s="10" t="n">
+        <v>96656</v>
+      </c>
+      <c r="N41" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="15" t="n">
+        <f aca="false">I41-B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15" t="n">
+        <f aca="false">J41-C41</f>
+        <v>1071</v>
+      </c>
+      <c r="R41" s="15" t="n">
+        <f aca="false">K41-D41</f>
+        <v>1221</v>
+      </c>
+      <c r="S41" s="15" t="n">
+        <f aca="false">L41-E41</f>
+        <v>23717</v>
+      </c>
+      <c r="T41" s="15" t="n">
+        <f aca="false">M41-F41</f>
+        <v>96656</v>
+      </c>
+      <c r="U41" s="15" t="n">
+        <f aca="false">N41-G41</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" s="10" t="n">
+        <v>678</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>777</v>
+      </c>
+      <c r="L42" s="10" t="n">
+        <v>15192</v>
+      </c>
+      <c r="M42" s="10" t="n">
+        <v>61338</v>
+      </c>
+      <c r="N42" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="O42" s="16"/>
+      <c r="P42" s="15" t="n">
+        <f aca="false">I42-B42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15" t="n">
+        <f aca="false">J42-C42</f>
+        <v>678</v>
+      </c>
+      <c r="R42" s="15" t="n">
+        <f aca="false">K42-D42</f>
+        <v>777</v>
+      </c>
+      <c r="S42" s="15" t="n">
+        <f aca="false">L42-E42</f>
+        <v>15192</v>
+      </c>
+      <c r="T42" s="15" t="n">
+        <f aca="false">M42-F42</f>
+        <v>61338</v>
+      </c>
+      <c r="U42" s="15" t="n">
+        <f aca="false">N42-G42</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J43" s="10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="K43" s="10" t="n">
+        <v>1310</v>
+      </c>
+      <c r="L43" s="10" t="n">
+        <v>25999</v>
+      </c>
+      <c r="M43" s="10" t="n">
+        <v>104336</v>
+      </c>
+      <c r="N43" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="15" t="n">
+        <f aca="false">I43-B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15" t="n">
+        <f aca="false">J43-C43</f>
+        <v>1151</v>
+      </c>
+      <c r="R43" s="15" t="n">
+        <f aca="false">K43-D43</f>
+        <v>1310</v>
+      </c>
+      <c r="S43" s="15" t="n">
+        <f aca="false">L43-E43</f>
+        <v>25999</v>
+      </c>
+      <c r="T43" s="15" t="n">
+        <f aca="false">M43-F43</f>
+        <v>104336</v>
+      </c>
+      <c r="U43" s="15" t="n">
+        <f aca="false">N43-G43</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J44" s="10" t="n">
+        <v>879</v>
+      </c>
+      <c r="K44" s="10" t="n">
+        <v>1034</v>
+      </c>
+      <c r="L44" s="10" t="n">
+        <v>19146</v>
+      </c>
+      <c r="M44" s="10" t="n">
+        <v>75533</v>
+      </c>
+      <c r="N44" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="15" t="n">
+        <f aca="false">I44-B44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15" t="n">
+        <f aca="false">J44-C44</f>
+        <v>879</v>
+      </c>
+      <c r="R44" s="15" t="n">
+        <f aca="false">K44-D44</f>
+        <v>1034</v>
+      </c>
+      <c r="S44" s="15" t="n">
+        <f aca="false">L44-E44</f>
+        <v>19146</v>
+      </c>
+      <c r="T44" s="15" t="n">
+        <f aca="false">M44-F44</f>
+        <v>75533</v>
+      </c>
+      <c r="U44" s="15" t="n">
+        <f aca="false">N44-G44</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" s="10" t="n">
+        <v>1007</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <v>1099</v>
+      </c>
+      <c r="L45" s="10" t="n">
+        <v>24277</v>
+      </c>
+      <c r="M45" s="10" t="n">
+        <v>101726</v>
+      </c>
+      <c r="N45" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="15" t="n">
+        <f aca="false">I45-B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15" t="n">
+        <f aca="false">J45-C45</f>
+        <v>1007</v>
+      </c>
+      <c r="R45" s="15" t="n">
+        <f aca="false">K45-D45</f>
+        <v>1099</v>
+      </c>
+      <c r="S45" s="15" t="n">
+        <f aca="false">L45-E45</f>
+        <v>24277</v>
+      </c>
+      <c r="T45" s="15" t="n">
+        <f aca="false">M45-F45</f>
+        <v>101726</v>
+      </c>
+      <c r="U45" s="15" t="n">
+        <f aca="false">N45-G45</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" s="10" t="n">
+        <v>433</v>
+      </c>
+      <c r="K46" s="10" t="n">
+        <v>536</v>
+      </c>
+      <c r="L46" s="10" t="n">
+        <v>9454</v>
+      </c>
+      <c r="M46" s="10" t="n">
+        <v>39320</v>
+      </c>
+      <c r="N46" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="15" t="n">
+        <f aca="false">I46-B46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15" t="n">
+        <f aca="false">J46-C46</f>
+        <v>433</v>
+      </c>
+      <c r="R46" s="15" t="n">
+        <f aca="false">K46-D46</f>
+        <v>536</v>
+      </c>
+      <c r="S46" s="15" t="n">
+        <f aca="false">L46-E46</f>
+        <v>9454</v>
+      </c>
+      <c r="T46" s="15" t="n">
+        <f aca="false">M46-F46</f>
+        <v>39320</v>
+      </c>
+      <c r="U46" s="15" t="n">
+        <f aca="false">N46-G46</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" s="10" t="n">
+        <v>437</v>
+      </c>
+      <c r="K47" s="10" t="n">
+        <v>528</v>
+      </c>
+      <c r="L47" s="10" t="n">
+        <v>9474</v>
+      </c>
+      <c r="M47" s="10" t="n">
+        <v>37943</v>
+      </c>
+      <c r="N47" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="15" t="n">
+        <f aca="false">I47-B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15" t="n">
+        <f aca="false">J47-C47</f>
+        <v>437</v>
+      </c>
+      <c r="R47" s="15" t="n">
+        <f aca="false">K47-D47</f>
+        <v>528</v>
+      </c>
+      <c r="S47" s="15" t="n">
+        <f aca="false">L47-E47</f>
+        <v>9474</v>
+      </c>
+      <c r="T47" s="15" t="n">
+        <f aca="false">M47-F47</f>
+        <v>37943</v>
+      </c>
+      <c r="U47" s="15" t="n">
+        <f aca="false">N47-G47</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" s="10" t="n">
+        <v>257</v>
+      </c>
+      <c r="K48" s="10" t="n">
+        <v>287</v>
+      </c>
+      <c r="L48" s="10" t="n">
+        <v>6089</v>
+      </c>
+      <c r="M48" s="10" t="n">
+        <v>24982</v>
+      </c>
+      <c r="N48" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="15" t="n">
+        <f aca="false">I48-B48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="15" t="n">
+        <f aca="false">J48-C48</f>
+        <v>257</v>
+      </c>
+      <c r="R48" s="15" t="n">
+        <f aca="false">K48-D48</f>
+        <v>287</v>
+      </c>
+      <c r="S48" s="15" t="n">
+        <f aca="false">L48-E48</f>
+        <v>6089</v>
+      </c>
+      <c r="T48" s="15" t="n">
+        <f aca="false">M48-F48</f>
+        <v>24982</v>
+      </c>
+      <c r="U48" s="15" t="n">
+        <f aca="false">N48-G48</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" s="10" t="n">
+        <v>149</v>
+      </c>
+      <c r="K49" s="10" t="n">
+        <v>162</v>
+      </c>
+      <c r="L49" s="10" t="n">
+        <v>3092</v>
+      </c>
+      <c r="M49" s="10" t="n">
+        <v>12652</v>
+      </c>
+      <c r="N49" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="15" t="n">
+        <f aca="false">I49-B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15" t="n">
+        <f aca="false">J49-C49</f>
+        <v>149</v>
+      </c>
+      <c r="R49" s="15" t="n">
+        <f aca="false">K49-D49</f>
+        <v>162</v>
+      </c>
+      <c r="S49" s="15" t="n">
+        <f aca="false">L49-E49</f>
+        <v>3092</v>
+      </c>
+      <c r="T49" s="15" t="n">
+        <f aca="false">M49-F49</f>
+        <v>12652</v>
+      </c>
+      <c r="U49" s="15" t="n">
+        <f aca="false">N49-G49</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" s="10" t="n">
+        <v>158</v>
+      </c>
+      <c r="L50" s="10" t="n">
+        <v>3030</v>
+      </c>
+      <c r="M50" s="10" t="n">
+        <v>12832</v>
+      </c>
+      <c r="N50" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="15" t="n">
+        <f aca="false">I50-B50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15" t="n">
+        <f aca="false">J50-C50</f>
+        <v>155</v>
+      </c>
+      <c r="R50" s="15" t="n">
+        <f aca="false">K50-D50</f>
+        <v>158</v>
+      </c>
+      <c r="S50" s="15" t="n">
+        <f aca="false">L50-E50</f>
+        <v>3030</v>
+      </c>
+      <c r="T50" s="15" t="n">
+        <f aca="false">M50-F50</f>
+        <v>12832</v>
+      </c>
+      <c r="U50" s="15" t="n">
+        <f aca="false">N50-G50</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="L51" s="10" t="n">
+        <v>2185</v>
+      </c>
+      <c r="M51" s="10" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N51" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="15" t="n">
+        <f aca="false">I51-B51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15" t="n">
+        <f aca="false">J51-C51</f>
+        <v>104</v>
+      </c>
+      <c r="R51" s="15" t="n">
+        <f aca="false">K51-D51</f>
+        <v>111</v>
+      </c>
+      <c r="S51" s="15" t="n">
+        <f aca="false">L51-E51</f>
+        <v>2185</v>
+      </c>
+      <c r="T51" s="15" t="n">
+        <f aca="false">M51-F51</f>
+        <v>9031</v>
+      </c>
+      <c r="U51" s="15" t="n">
+        <f aca="false">N51-G51</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="K52" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L52" s="10" t="n">
+        <v>1983</v>
+      </c>
+      <c r="M52" s="10" t="n">
+        <v>8422</v>
+      </c>
+      <c r="N52" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="15" t="n">
+        <f aca="false">I52-B52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="15" t="n">
+        <f aca="false">J52-C52</f>
+        <v>95</v>
+      </c>
+      <c r="R52" s="15" t="n">
+        <f aca="false">K52-D52</f>
+        <v>100</v>
+      </c>
+      <c r="S52" s="15" t="n">
+        <f aca="false">L52-E52</f>
+        <v>1983</v>
+      </c>
+      <c r="T52" s="15" t="n">
+        <f aca="false">M52-F52</f>
+        <v>8422</v>
+      </c>
+      <c r="U52" s="15" t="n">
+        <f aca="false">N52-G52</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="K53" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="L53" s="10" t="n">
+        <v>1837</v>
+      </c>
+      <c r="M53" s="10" t="n">
+        <v>7543</v>
+      </c>
+      <c r="N53" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="15" t="n">
+        <f aca="false">I53-B53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15" t="n">
+        <f aca="false">J53-C53</f>
+        <v>89</v>
+      </c>
+      <c r="R53" s="15" t="n">
+        <f aca="false">K53-D53</f>
+        <v>92</v>
+      </c>
+      <c r="S53" s="15" t="n">
+        <f aca="false">L53-E53</f>
+        <v>1837</v>
+      </c>
+      <c r="T53" s="15" t="n">
+        <f aca="false">M53-F53</f>
+        <v>7543</v>
+      </c>
+      <c r="U53" s="15" t="n">
+        <f aca="false">N53-G53</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="K54" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="L54" s="10" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M54" s="10" t="n">
+        <v>4277</v>
+      </c>
+      <c r="N54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="15" t="n">
+        <f aca="false">I54-B54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15" t="n">
+        <f aca="false">J54-C54</f>
+        <v>47</v>
+      </c>
+      <c r="R54" s="15" t="n">
+        <f aca="false">K54-D54</f>
+        <v>49</v>
+      </c>
+      <c r="S54" s="15" t="n">
+        <f aca="false">L54-E54</f>
+        <v>1024</v>
+      </c>
+      <c r="T54" s="15" t="n">
+        <f aca="false">M54-F54</f>
+        <v>4277</v>
+      </c>
+      <c r="U54" s="15" t="n">
+        <f aca="false">N54-G54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="K55" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="L55" s="10" t="n">
+        <v>2251</v>
+      </c>
+      <c r="M55" s="10" t="n">
+        <v>10068</v>
+      </c>
+      <c r="N55" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="15" t="n">
+        <f aca="false">I55-B55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15" t="n">
+        <f aca="false">J55-C55</f>
+        <v>113</v>
+      </c>
+      <c r="R55" s="15" t="n">
+        <f aca="false">K55-D55</f>
+        <v>119</v>
+      </c>
+      <c r="S55" s="15" t="n">
+        <f aca="false">L55-E55</f>
+        <v>2251</v>
+      </c>
+      <c r="T55" s="15" t="n">
+        <f aca="false">M55-F55</f>
+        <v>10068</v>
+      </c>
+      <c r="U55" s="15" t="n">
+        <f aca="false">N55-G55</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="K56" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="L56" s="10" t="n">
+        <v>1667</v>
+      </c>
+      <c r="M56" s="10" t="n">
+        <v>7246</v>
+      </c>
+      <c r="N56" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" s="16"/>
+      <c r="P56" s="15" t="n">
+        <f aca="false">I56-B56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15" t="n">
+        <f aca="false">J56-C56</f>
+        <v>83</v>
+      </c>
+      <c r="R56" s="15" t="n">
+        <f aca="false">K56-D56</f>
+        <v>89</v>
+      </c>
+      <c r="S56" s="15" t="n">
+        <f aca="false">L56-E56</f>
+        <v>1667</v>
+      </c>
+      <c r="T56" s="15" t="n">
+        <f aca="false">M56-F56</f>
+        <v>7246</v>
+      </c>
+      <c r="U56" s="15" t="n">
+        <f aca="false">N56-G56</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="L57" s="10" t="n">
+        <v>898</v>
+      </c>
+      <c r="M57" s="10" t="n">
+        <v>4067</v>
+      </c>
+      <c r="N57" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="16"/>
+      <c r="P57" s="15" t="n">
+        <f aca="false">I57-B57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="15" t="n">
+        <f aca="false">J57-C57</f>
+        <v>46</v>
+      </c>
+      <c r="R57" s="15" t="n">
+        <f aca="false">K57-D57</f>
+        <v>52</v>
+      </c>
+      <c r="S57" s="15" t="n">
+        <f aca="false">L57-E57</f>
+        <v>898</v>
+      </c>
+      <c r="T57" s="15" t="n">
+        <f aca="false">M57-F57</f>
+        <v>4067</v>
+      </c>
+      <c r="U57" s="15" t="n">
+        <f aca="false">N57-G57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K58" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="L58" s="10" t="n">
+        <v>430</v>
+      </c>
+      <c r="M58" s="10" t="n">
+        <v>1817</v>
+      </c>
+      <c r="N58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="16"/>
+      <c r="P58" s="15" t="n">
+        <f aca="false">I58-B58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="15" t="n">
+        <f aca="false">J58-C58</f>
+        <v>25</v>
+      </c>
+      <c r="R58" s="15" t="n">
+        <f aca="false">K58-D58</f>
+        <v>26</v>
+      </c>
+      <c r="S58" s="15" t="n">
+        <f aca="false">L58-E58</f>
+        <v>430</v>
+      </c>
+      <c r="T58" s="15" t="n">
+        <f aca="false">M58-F58</f>
+        <v>1817</v>
+      </c>
+      <c r="U58" s="15" t="n">
+        <f aca="false">N58-G58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" s="10" t="n">
+        <v>303</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>319</v>
+      </c>
+      <c r="L59" s="10" t="n">
+        <v>6915</v>
+      </c>
+      <c r="M59" s="10" t="n">
+        <v>29336</v>
+      </c>
+      <c r="N59" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O59" s="16"/>
+      <c r="P59" s="15" t="n">
+        <f aca="false">I59-B59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="15" t="n">
+        <f aca="false">J59-C59</f>
+        <v>303</v>
+      </c>
+      <c r="R59" s="15" t="n">
+        <f aca="false">K59-D59</f>
+        <v>319</v>
+      </c>
+      <c r="S59" s="15" t="n">
+        <f aca="false">L59-E59</f>
+        <v>6915</v>
+      </c>
+      <c r="T59" s="15" t="n">
+        <f aca="false">M59-F59</f>
+        <v>29336</v>
+      </c>
+      <c r="U59" s="15" t="n">
+        <f aca="false">N59-G59</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="K60" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="L60" s="10" t="n">
+        <v>2307</v>
+      </c>
+      <c r="M60" s="10" t="n">
+        <v>9433</v>
+      </c>
+      <c r="N60" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="15" t="n">
+        <f aca="false">I60-B60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="15" t="n">
+        <f aca="false">J60-C60</f>
+        <v>108</v>
+      </c>
+      <c r="R60" s="15" t="n">
+        <f aca="false">K60-D60</f>
+        <v>134</v>
+      </c>
+      <c r="S60" s="15" t="n">
+        <f aca="false">L60-E60</f>
+        <v>2307</v>
+      </c>
+      <c r="T60" s="15" t="n">
+        <f aca="false">M60-F60</f>
+        <v>9433</v>
+      </c>
+      <c r="U60" s="15" t="n">
+        <f aca="false">N60-G60</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K61" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="L61" s="10" t="n">
+        <v>2478</v>
+      </c>
+      <c r="M61" s="10" t="n">
+        <v>10589</v>
+      </c>
+      <c r="N61" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="15" t="n">
+        <f aca="false">I61-B61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="15" t="n">
+        <f aca="false">J61-C61</f>
+        <v>105</v>
+      </c>
+      <c r="R61" s="15" t="n">
+        <f aca="false">K61-D61</f>
+        <v>116</v>
+      </c>
+      <c r="S61" s="15" t="n">
+        <f aca="false">L61-E61</f>
+        <v>2478</v>
+      </c>
+      <c r="T61" s="15" t="n">
+        <f aca="false">M61-F61</f>
+        <v>10589</v>
+      </c>
+      <c r="U61" s="15" t="n">
+        <f aca="false">N61-G61</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="K62" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="L62" s="10" t="n">
+        <v>1557</v>
+      </c>
+      <c r="M62" s="10" t="n">
+        <v>6940</v>
+      </c>
+      <c r="N62" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="15" t="n">
+        <f aca="false">I62-B62</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="15" t="n">
+        <f aca="false">J62-C62</f>
+        <v>61</v>
+      </c>
+      <c r="R62" s="15" t="n">
+        <f aca="false">K62-D62</f>
+        <v>66</v>
+      </c>
+      <c r="S62" s="15" t="n">
+        <f aca="false">L62-E62</f>
+        <v>1557</v>
+      </c>
+      <c r="T62" s="15" t="n">
+        <f aca="false">M62-F62</f>
+        <v>6940</v>
+      </c>
+      <c r="U62" s="15" t="n">
+        <f aca="false">N62-G62</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K63" s="10" t="n">
+        <v>126</v>
+      </c>
+      <c r="L63" s="10" t="n">
+        <v>2519</v>
+      </c>
+      <c r="M63" s="10" t="n">
+        <v>9848</v>
+      </c>
+      <c r="N63" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" s="16"/>
+      <c r="P63" s="15" t="n">
+        <f aca="false">I63-B63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="15" t="n">
+        <f aca="false">J63-C63</f>
+        <v>105</v>
+      </c>
+      <c r="R63" s="15" t="n">
+        <f aca="false">K63-D63</f>
+        <v>126</v>
+      </c>
+      <c r="S63" s="15" t="n">
+        <f aca="false">L63-E63</f>
+        <v>2519</v>
+      </c>
+      <c r="T63" s="15" t="n">
+        <f aca="false">M63-F63</f>
+        <v>9848</v>
+      </c>
+      <c r="U63" s="15" t="n">
+        <f aca="false">N63-G63</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="L64" s="10" t="n">
+        <v>298</v>
+      </c>
+      <c r="M64" s="10" t="n">
+        <v>1204</v>
+      </c>
+      <c r="N64" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="16"/>
+      <c r="P64" s="15" t="n">
+        <f aca="false">I64-B64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="15" t="n">
+        <f aca="false">J64-C64</f>
+        <v>13</v>
+      </c>
+      <c r="R64" s="15" t="n">
+        <f aca="false">K64-D64</f>
+        <v>17</v>
+      </c>
+      <c r="S64" s="15" t="n">
+        <f aca="false">L64-E64</f>
+        <v>298</v>
+      </c>
+      <c r="T64" s="15" t="n">
+        <f aca="false">M64-F64</f>
+        <v>1204</v>
+      </c>
+      <c r="U64" s="15" t="n">
+        <f aca="false">N64-G64</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K65" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="L65" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="M65" s="10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N65" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="16"/>
+      <c r="P65" s="15" t="n">
+        <f aca="false">I65-B65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="15" t="n">
+        <f aca="false">J65-C65</f>
+        <v>14</v>
+      </c>
+      <c r="R65" s="15" t="n">
+        <f aca="false">K65-D65</f>
+        <v>18</v>
+      </c>
+      <c r="S65" s="15" t="n">
+        <f aca="false">L65-E65</f>
+        <v>294</v>
+      </c>
+      <c r="T65" s="15" t="n">
+        <f aca="false">M65-F65</f>
+        <v>1250</v>
+      </c>
+      <c r="U65" s="15" t="n">
+        <f aca="false">N65-G65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K66" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="L66" s="10" t="n">
+        <v>609</v>
+      </c>
+      <c r="M66" s="10" t="n">
+        <v>2812</v>
+      </c>
+      <c r="N66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="16"/>
+      <c r="P66" s="15" t="n">
+        <f aca="false">I66-B66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15" t="n">
+        <f aca="false">J66-C66</f>
+        <v>25</v>
+      </c>
+      <c r="R66" s="15" t="n">
+        <f aca="false">K66-D66</f>
+        <v>27</v>
+      </c>
+      <c r="S66" s="15" t="n">
+        <f aca="false">L66-E66</f>
+        <v>609</v>
+      </c>
+      <c r="T66" s="15" t="n">
+        <f aca="false">M66-F66</f>
+        <v>2812</v>
+      </c>
+      <c r="U66" s="15" t="n">
+        <f aca="false">N66-G66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>404</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>460</v>
+      </c>
+      <c r="L67" s="10" t="n">
+        <v>12003</v>
+      </c>
+      <c r="M67" s="10" t="n">
+        <v>48251</v>
+      </c>
+      <c r="N67" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="O67" s="16"/>
+      <c r="P67" s="15" t="n">
+        <f aca="false">I67-B67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="15" t="n">
+        <f aca="false">J67-C67</f>
+        <v>404</v>
+      </c>
+      <c r="R67" s="15" t="n">
+        <f aca="false">K67-D67</f>
+        <v>460</v>
+      </c>
+      <c r="S67" s="15" t="n">
+        <f aca="false">L67-E67</f>
+        <v>12003</v>
+      </c>
+      <c r="T67" s="15" t="n">
+        <f aca="false">M67-F67</f>
+        <v>48251</v>
+      </c>
+      <c r="U67" s="15" t="n">
+        <f aca="false">N67-G67</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="14" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C68" s="15" t="n">
+        <v>17654</v>
+      </c>
+      <c r="D68" s="15" t="n">
+        <v>23349</v>
+      </c>
+      <c r="E68" s="15" t="n">
+        <v>435354</v>
+      </c>
+      <c r="F68" s="15" t="n">
+        <v>1881744</v>
+      </c>
+      <c r="G68" s="15" t="n">
+        <v>609</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="10" t="n">
+        <f aca="false">SUM(I2:I67)</f>
+        <v>1189</v>
+      </c>
+      <c r="J68" s="10" t="n">
+        <f aca="false">SUM(J2:J67)</f>
+        <v>31102</v>
+      </c>
+      <c r="K68" s="10" t="n">
+        <f aca="false">SUM(K2:K67)</f>
+        <v>35049</v>
+      </c>
+      <c r="L68" s="10" t="n">
+        <f aca="false">SUM(L2:L67)</f>
+        <v>790573</v>
+      </c>
+      <c r="M68" s="10" t="n">
+        <f aca="false">SUM(M2:M67)</f>
+        <v>3223201</v>
+      </c>
+      <c r="N68" s="10" t="n">
+        <f aca="false">SUM(N2:N67)</f>
+        <v>1061</v>
+      </c>
+      <c r="O68" s="16"/>
+      <c r="P68" s="10" t="n">
+        <f aca="false">SUM(P2:P67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10" t="n">
+        <f aca="false">SUM(Q2:Q67)</f>
+        <v>13448</v>
+      </c>
+      <c r="R68" s="10" t="n">
+        <f aca="false">SUM(R2:R67)</f>
+        <v>11700</v>
+      </c>
+      <c r="S68" s="10" t="n">
+        <f aca="false">SUM(S2:S67)</f>
+        <v>355219</v>
+      </c>
+      <c r="T68" s="10" t="n">
+        <f aca="false">SUM(T2:T67)</f>
+        <v>1341457</v>
+      </c>
+      <c r="U68" s="10" t="n">
+        <f aca="false">SUM(U2:U67)</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/bible/nwt_xml/content.xlsx
+++ b/bible/nwt_xml/content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="nwt" sheetId="1" state="visible" r:id="rId3"/>
@@ -441,47 +441,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,12 +670,12 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E49" activeCellId="0" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1675,18 +1675,31 @@
       <c r="E24" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="2"/>
+      <c r="F24" s="6" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2228</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>37132</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>156987</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>51</v>
+      </c>
       <c r="K24" s="2" t="n">
         <v>99.8</v>
       </c>
       <c r="L24" s="7" t="n">
         <v>270</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="7" t="n">
+        <f aca="false">H24/L24</f>
+        <v>137.525925925926</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -1704,18 +1717,31 @@
       <c r="E25" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="2"/>
+      <c r="F25" s="6" t="n">
+        <v>1364</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>2228</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>42323</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>183839</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>59</v>
+      </c>
       <c r="K25" s="2" t="n">
         <v>106.2</v>
       </c>
       <c r="L25" s="7" t="n">
         <v>289</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="7" t="n">
+        <f aca="false">H25/L25</f>
+        <v>146.446366782007</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1733,18 +1759,31 @@
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
+      <c r="F26" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3467</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>14538</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="K26" s="2" t="n">
         <v>9.8</v>
       </c>
       <c r="L26" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="7" t="n">
+        <f aca="false">H26/L26</f>
+        <v>128.407407407407</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -1762,18 +1801,31 @@
       <c r="E27" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="2"/>
+      <c r="F27" s="6" t="n">
+        <v>1273</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1883</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>38703</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>166014</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="K27" s="2" t="n">
         <v>92.4</v>
       </c>
       <c r="L27" s="7" t="n">
         <v>251</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="7" t="n">
+        <f aca="false">H27/L27</f>
+        <v>154.195219123506</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1791,18 +1843,31 @@
       <c r="E28" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
+      <c r="F28" s="6" t="n">
+        <v>357</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>517</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>11832</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="K28" s="2" t="n">
         <v>31.3</v>
       </c>
       <c r="L28" s="7" t="n">
         <v>86</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="7" t="n">
+        <f aca="false">H28/L28</f>
+        <v>137.581395348837</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1820,18 +1885,31 @@
       <c r="E29" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
+      <c r="F29" s="6" t="n">
+        <v>197</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>326</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>5242</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>22392</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="K29" s="2" t="n">
         <v>14.7</v>
       </c>
       <c r="L29" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="7" t="n">
+        <f aca="false">H29/L29</f>
+        <v>134.410256410256</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -1849,18 +1927,31 @@
       <c r="E30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
+      <c r="F30" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>1973</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>8465</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K30" s="2" t="n">
         <v>5.4</v>
       </c>
       <c r="L30" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="7" t="n">
+        <f aca="false">H30/L30</f>
+        <v>131.533333333333</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -1878,18 +1969,31 @@
       <c r="E31" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="2"/>
+      <c r="F31" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>4288</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>18104</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="K31" s="2" t="n">
         <v>11.1</v>
       </c>
       <c r="L31" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="7" t="n">
+        <f aca="false">H31/L31</f>
+        <v>142.933333333333</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -1907,18 +2011,31 @@
       <c r="E32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
+      <c r="F32" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>671</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>2930</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" s="2" t="n">
         <v>1.8</v>
       </c>
       <c r="L32" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="7" t="n">
+        <f aca="false">H32/L32</f>
+        <v>134.2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -1936,18 +2053,31 @@
       <c r="E33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="2"/>
+      <c r="F33" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>1344</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>5424</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K33" s="2" t="n">
         <v>4.5</v>
       </c>
       <c r="L33" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="7" t="n">
+        <f aca="false">H33/L33</f>
+        <v>149.333333333333</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -1965,18 +2095,31 @@
       <c r="E34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
+      <c r="F34" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>3092</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>13028</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K34" s="2" t="n">
         <v>10.2</v>
       </c>
       <c r="L34" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="7" t="n">
+        <f aca="false">H34/L34</f>
+        <v>110.428571428571</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -1994,18 +2137,31 @@
       <c r="E35" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="2"/>
+      <c r="F35" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>1261</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>5550</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K35" s="2" t="n">
         <v>4.3</v>
       </c>
       <c r="L35" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="7" t="n">
+        <f aca="false">H35/L35</f>
+        <v>105.083333333333</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -2023,18 +2179,31 @@
       <c r="E36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="2"/>
+      <c r="F36" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>1501</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>6354</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K36" s="2" t="n">
         <v>4.1</v>
       </c>
       <c r="L36" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="7" t="n">
+        <f aca="false">H36/L36</f>
+        <v>136.454545454545</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -2052,18 +2221,31 @@
       <c r="E37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="2"/>
+      <c r="F37" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>1617</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>7085</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K37" s="2" t="n">
         <v>4.4</v>
       </c>
       <c r="L37" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="7" t="n">
+        <f aca="false">H37/L37</f>
+        <v>134.75</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -2081,18 +2263,31 @@
       <c r="E38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="2"/>
+      <c r="F38" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1130</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>4967</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K38" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="L38" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" s="7" t="n">
+        <f aca="false">H38/L38</f>
+        <v>141.25</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -2110,18 +2305,31 @@
       <c r="E39" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="2"/>
+      <c r="F39" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>293</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>6299</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>26758</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="K39" s="2" t="n">
         <v>16.2</v>
       </c>
       <c r="L39" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="7" t="n">
+        <f aca="false">H39/L39</f>
+        <v>146.488372093023</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -2139,18 +2347,31 @@
       <c r="E40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="2"/>
+      <c r="F40" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1876</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>8060</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K40" s="2" t="n">
         <v>4.9</v>
       </c>
       <c r="L40" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" s="7" t="n">
+        <f aca="false">H40/L40</f>
+        <v>144.307692307692</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -2168,18 +2389,31 @@
       <c r="E41" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="2"/>
+      <c r="F41" s="6" t="n">
+        <v>1071</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>1346</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>24224</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>101747</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>33</v>
+      </c>
       <c r="K41" s="2" t="n">
         <v>62.6</v>
       </c>
       <c r="L41" s="7" t="n">
         <v>171</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="7" t="n">
+        <f aca="false">H41/L41</f>
+        <v>141.66081871345</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
@@ -2197,18 +2431,31 @@
       <c r="E42" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="2"/>
+      <c r="F42" s="6" t="n">
+        <v>666</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>834</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>15064</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>62679</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="K42" s="2" t="n">
         <v>42.6</v>
       </c>
       <c r="L42" s="7" t="n">
         <v>117</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" s="7" t="n">
+        <f aca="false">H42/L42</f>
+        <v>128.752136752137</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -2226,18 +2473,31 @@
       <c r="E43" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="2"/>
+      <c r="F43" s="6" t="n">
+        <v>1151</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>1432</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>26249</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>109644</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>36</v>
+      </c>
       <c r="K43" s="2" t="n">
         <v>68.4</v>
       </c>
       <c r="L43" s="7" t="n">
         <v>187</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="7" t="n">
+        <f aca="false">H43/L43</f>
+        <v>140.368983957219</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -2255,18 +2515,31 @@
       <c r="E44" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="2"/>
+      <c r="F44" s="6" t="n">
+        <v>867</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>1105</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>20137</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>80701</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>26</v>
+      </c>
       <c r="K44" s="2" t="n">
         <v>52.3</v>
       </c>
       <c r="L44" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="7" t="n">
+        <f aca="false">H44/L44</f>
+        <v>140.818181818182</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -2284,18 +2557,31 @@
       <c r="E45" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="2"/>
+      <c r="F45" s="6" t="n">
+        <v>1007</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>1197</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>25130</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>109462</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>35</v>
+      </c>
       <c r="K45" s="2" t="n">
         <v>62</v>
       </c>
       <c r="L45" s="7" t="n">
         <v>169</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="7" t="n">
+        <f aca="false">H45/L45</f>
+        <v>148.698224852071</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -2313,18 +2599,31 @@
       <c r="E46" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="2"/>
+      <c r="F46" s="6" t="n">
+        <v>433</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>563</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>10399</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>43964</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="K46" s="2" t="n">
         <v>25.9</v>
       </c>
       <c r="L46" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="7" t="n">
+        <f aca="false">H46/L46</f>
+        <v>148.557142857143</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -2342,18 +2641,31 @@
       <c r="E47" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="2"/>
+      <c r="F47" s="6" t="n">
+        <v>437</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>578</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>10206</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>41432</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="K47" s="2" t="n">
         <v>25.5</v>
       </c>
       <c r="L47" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" s="7" t="n">
+        <f aca="false">H47/L47</f>
+        <v>147.913043478261</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -2371,18 +2683,31 @@
       <c r="E48" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="2"/>
+      <c r="F48" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>327</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>6659</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>27751</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="K48" s="2" t="n">
         <v>16.5</v>
       </c>
       <c r="L48" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" s="7" t="n">
+        <f aca="false">H48/L48</f>
+        <v>151.340909090909</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -2400,18 +2725,31 @@
       <c r="E49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="2"/>
+      <c r="F49" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>178</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>3477</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>14597</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="K49" s="2" t="n">
         <v>9.2</v>
       </c>
       <c r="L49" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" s="7" t="n">
+        <f aca="false">H49/L49</f>
+        <v>139.08</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -2429,18 +2767,31 @@
       <c r="E50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="2"/>
+      <c r="F50" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>167</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>3429</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>14740</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="K50" s="2" t="n">
         <v>8.6</v>
       </c>
       <c r="L50" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="7" t="n">
+        <f aca="false">H50/L50</f>
+        <v>149.086956521739</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -2458,18 +2809,31 @@
       <c r="E51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="2"/>
+      <c r="F51" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>2519</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>10559</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K51" s="2" t="n">
         <v>6.1</v>
       </c>
       <c r="L51" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="7" t="n">
+        <f aca="false">H51/L51</f>
+        <v>157.4375</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -2487,18 +2851,31 @@
       <c r="E52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="2"/>
+      <c r="F52" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>2294</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>10032</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K52" s="2" t="n">
         <v>5.7</v>
       </c>
       <c r="L52" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" s="7" t="n">
+        <f aca="false">H52/L52</f>
+        <v>152.933333333333</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -2516,18 +2893,31 @@
       <c r="E53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="2"/>
+      <c r="F53" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I53" s="6" t="n">
+        <v>8410</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K53" s="2" t="n">
         <v>5.2</v>
       </c>
       <c r="L53" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="7" t="n">
+        <f aca="false">H53/L53</f>
+        <v>144.428571428571</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -2545,18 +2935,31 @@
       <c r="E54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="2"/>
+      <c r="F54" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>4989</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K54" s="2" t="n">
         <v>3</v>
       </c>
       <c r="L54" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="7" t="n">
+        <f aca="false">H54/L54</f>
+        <v>146.25</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -2574,18 +2977,31 @@
       <c r="E55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="2"/>
+      <c r="F55" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>2588</v>
+      </c>
+      <c r="I55" s="6" t="n">
+        <v>11687</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K55" s="2" t="n">
         <v>6.9</v>
       </c>
       <c r="L55" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="7" t="n">
+        <f aca="false">H55/L55</f>
+        <v>136.210526315789</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -2603,18 +3019,31 @@
       <c r="E56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="2"/>
+      <c r="F56" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>1812</v>
+      </c>
+      <c r="I56" s="6" t="n">
+        <v>8136</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K56" s="2" t="n">
         <v>4.9</v>
       </c>
       <c r="L56" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="7" t="n">
+        <f aca="false">H56/L56</f>
+        <v>139.384615384615</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -2632,18 +3061,31 @@
       <c r="E57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="2"/>
+      <c r="F57" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>1045</v>
+      </c>
+      <c r="I57" s="6" t="n">
+        <v>4743</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K57" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="L57" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" s="7" t="n">
+        <f aca="false">H57/L57</f>
+        <v>130.625</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -2661,18 +3103,31 @@
       <c r="E58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="2"/>
+      <c r="F58" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>512</v>
+      </c>
+      <c r="I58" s="6" t="n">
+        <v>2056</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" s="2" t="n">
         <v>1.2</v>
       </c>
       <c r="L58" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="M58" s="2"/>
+      <c r="M58" s="7" t="n">
+        <f aca="false">H58/L58</f>
+        <v>170.666666666667</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -2690,18 +3145,31 @@
       <c r="E59" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="2"/>
+      <c r="F59" s="6" t="n">
+        <v>303</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>339</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>7573</v>
+      </c>
+      <c r="I59" s="6" t="n">
+        <v>32699</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="K59" s="2" t="n">
         <v>18.7</v>
       </c>
       <c r="L59" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="M59" s="2"/>
+      <c r="M59" s="7" t="n">
+        <f aca="false">H59/L59</f>
+        <v>151.46</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -2719,18 +3187,31 @@
       <c r="E60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="2"/>
+      <c r="F60" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>2496</v>
+      </c>
+      <c r="I60" s="6" t="n">
+        <v>10479</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K60" s="2" t="n">
         <v>7</v>
       </c>
       <c r="L60" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" s="7" t="n">
+        <f aca="false">H60/L60</f>
+        <v>131.368421052632</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -2748,18 +3229,31 @@
       <c r="E61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="2"/>
+      <c r="F61" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="H61" s="6" t="n">
+        <v>2661</v>
+      </c>
+      <c r="I61" s="6" t="n">
+        <v>11675</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K61" s="2" t="n">
         <v>7</v>
       </c>
       <c r="L61" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="M61" s="2"/>
+      <c r="M61" s="7" t="n">
+        <f aca="false">H61/L61</f>
+        <v>140.052631578947</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -2777,18 +3271,31 @@
       <c r="E62" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="2"/>
+      <c r="F62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>1681</v>
+      </c>
+      <c r="I62" s="6" t="n">
+        <v>7657</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K62" s="2" t="n">
         <v>4.4</v>
       </c>
       <c r="L62" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="M62" s="2"/>
+      <c r="M62" s="7" t="n">
+        <f aca="false">H62/L62</f>
+        <v>140.083333333333</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -2806,18 +3313,31 @@
       <c r="E63" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="2"/>
+      <c r="F63" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>2802</v>
+      </c>
+      <c r="I63" s="6" t="n">
+        <v>11293</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K63" s="2" t="n">
         <v>7.8</v>
       </c>
       <c r="L63" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" s="7" t="n">
+        <f aca="false">H63/L63</f>
+        <v>133.428571428571</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -2835,18 +3355,31 @@
       <c r="E64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="2"/>
+      <c r="F64" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>342</v>
+      </c>
+      <c r="I64" s="6" t="n">
+        <v>1352</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" s="2" t="n">
         <v>0.924</v>
       </c>
       <c r="L64" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="M64" s="2"/>
+      <c r="M64" s="7" t="n">
+        <f aca="false">H64/L64</f>
+        <v>171</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -2864,18 +3397,31 @@
       <c r="E65" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="2"/>
+      <c r="F65" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>354</v>
+      </c>
+      <c r="I65" s="6" t="n">
+        <v>1465</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" s="2" t="n">
         <v>1.1</v>
       </c>
       <c r="L65" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" s="7" t="n">
+        <f aca="false">H65/L65</f>
+        <v>118</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -2893,18 +3439,31 @@
       <c r="E66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="2"/>
+      <c r="F66" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>719</v>
+      </c>
+      <c r="I66" s="6" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="L66" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="M66" s="7" t="n">
+        <f aca="false">H66/L66</f>
+        <v>143.8</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -2922,18 +3481,31 @@
       <c r="E67" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="2"/>
+      <c r="F67" s="6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>551</v>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>12435</v>
+      </c>
+      <c r="I67" s="6" t="n">
+        <v>50768</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="K67" s="2" t="n">
         <v>35.1</v>
       </c>
       <c r="L67" s="7" t="n">
         <v>95</v>
       </c>
-      <c r="M67" s="2"/>
+      <c r="M67" s="7" t="n">
+        <f aca="false">H67/L67</f>
+        <v>130.894736842105</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -2952,23 +3524,23 @@
       </c>
       <c r="F68" s="6" t="n">
         <f aca="false">SUM(F2:F67)</f>
-        <v>17654</v>
+        <v>31077</v>
       </c>
       <c r="G68" s="6" t="n">
         <f aca="false">SUM(G2:G67)</f>
-        <v>23349</v>
+        <v>42029</v>
       </c>
       <c r="H68" s="6" t="n">
         <f aca="false">SUM(H2:H67)</f>
-        <v>435354</v>
+        <v>789104</v>
       </c>
       <c r="I68" s="6" t="n">
         <f aca="false">SUM(I2:I67)</f>
-        <v>1881744</v>
+        <v>3380746</v>
       </c>
       <c r="J68" s="6" t="n">
         <f aca="false">SUM(J2:J67)</f>
-        <v>609</v>
+        <v>1095</v>
       </c>
       <c r="K68" s="6" t="n">
         <f aca="false">SUM(K2:K67)</f>
@@ -2980,7 +3552,7 @@
       </c>
       <c r="M68" s="7" t="n">
         <f aca="false">H68/L68</f>
-        <v>78.3997839005943</v>
+        <v>142.104087880425</v>
       </c>
     </row>
   </sheetData>
@@ -3011,13 +3583,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4608,37 +5180,37 @@
   </sheetPr>
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q69" activeCellId="0" sqref="Q69"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6183,11 +6755,21 @@
       <c r="B24" s="14" t="n">
         <v>66</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="15" t="n">
+        <v>1292</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>37132</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>156987</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>51</v>
+      </c>
       <c r="H24" s="16"/>
       <c r="I24" s="10" t="n">
         <v>66</v>
@@ -6214,23 +6796,23 @@
       </c>
       <c r="Q24" s="15" t="n">
         <f aca="false">J24-C24</f>
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="R24" s="15" t="n">
         <f aca="false">K24-D24</f>
-        <v>1474</v>
+        <v>-754</v>
       </c>
       <c r="S24" s="15" t="n">
         <f aca="false">L24-E24</f>
-        <v>37086</v>
+        <v>-46</v>
       </c>
       <c r="T24" s="15" t="n">
         <f aca="false">M24-F24</f>
-        <v>150992</v>
+        <v>-5995</v>
       </c>
       <c r="U24" s="15" t="n">
         <f aca="false">N24-G24</f>
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6240,11 +6822,21 @@
       <c r="B25" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="15" t="n">
+        <v>1364</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>42323</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>183839</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <v>59</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25" s="10" t="n">
         <v>52</v>
@@ -6271,23 +6863,23 @@
       </c>
       <c r="Q25" s="15" t="n">
         <f aca="false">J25-C25</f>
-        <v>1364</v>
+        <v>0</v>
       </c>
       <c r="R25" s="15" t="n">
         <f aca="false">K25-D25</f>
-        <v>1564</v>
+        <v>-664</v>
       </c>
       <c r="S25" s="15" t="n">
         <f aca="false">L25-E25</f>
-        <v>42720</v>
+        <v>397</v>
       </c>
       <c r="T25" s="15" t="n">
         <f aca="false">M25-F25</f>
-        <v>174386</v>
+        <v>-9453</v>
       </c>
       <c r="U25" s="15" t="n">
         <f aca="false">N25-G25</f>
-        <v>57</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6297,11 +6889,21 @@
       <c r="B26" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="15" t="n">
+        <v>154</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>266</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>3467</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>14538</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="H26" s="16"/>
       <c r="I26" s="10" t="n">
         <v>5</v>
@@ -6328,23 +6930,23 @@
       </c>
       <c r="Q26" s="15" t="n">
         <f aca="false">J26-C26</f>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R26" s="15" t="n">
         <f aca="false">K26-D26</f>
-        <v>166</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="15" t="n">
         <f aca="false">L26-E26</f>
-        <v>3421</v>
+        <v>-46</v>
       </c>
       <c r="T26" s="15" t="n">
         <f aca="false">M26-F26</f>
-        <v>14173</v>
+        <v>-365</v>
       </c>
       <c r="U26" s="15" t="n">
         <f aca="false">N26-G26</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6354,11 +6956,21 @@
       <c r="B27" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="15" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>1883</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>38703</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>166014</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>53</v>
+      </c>
       <c r="H27" s="16"/>
       <c r="I27" s="10" t="n">
         <v>48</v>
@@ -6385,23 +6997,23 @@
       </c>
       <c r="Q27" s="15" t="n">
         <f aca="false">J27-C27</f>
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="R27" s="15" t="n">
         <f aca="false">K27-D27</f>
-        <v>1364</v>
+        <v>-519</v>
       </c>
       <c r="S27" s="15" t="n">
         <f aca="false">L27-E27</f>
-        <v>39423</v>
+        <v>720</v>
       </c>
       <c r="T27" s="15" t="n">
         <f aca="false">M27-F27</f>
-        <v>160049</v>
+        <v>-5965</v>
       </c>
       <c r="U27" s="15" t="n">
         <f aca="false">N27-G27</f>
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6411,11 +7023,21 @@
       <c r="B28" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="15" t="n">
+        <v>357</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <v>517</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>11832</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>50500</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>17</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="10" t="n">
         <v>12</v>
@@ -6442,23 +7064,23 @@
       </c>
       <c r="Q28" s="15" t="n">
         <f aca="false">J28-C28</f>
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="R28" s="15" t="n">
         <f aca="false">K28-D28</f>
-        <v>384</v>
+        <v>-133</v>
       </c>
       <c r="S28" s="15" t="n">
         <f aca="false">L28-E28</f>
-        <v>11605</v>
+        <v>-227</v>
       </c>
       <c r="T28" s="15" t="n">
         <f aca="false">M28-F28</f>
-        <v>48438</v>
+        <v>-2062</v>
       </c>
       <c r="U28" s="15" t="n">
         <f aca="false">N28-G28</f>
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6468,11 +7090,21 @@
       <c r="B29" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="15" t="n">
+        <v>197</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>326</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>5242</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>22392</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>7</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29" s="10" t="n">
         <v>14</v>
@@ -6499,23 +7131,23 @@
       </c>
       <c r="Q29" s="15" t="n">
         <f aca="false">J29-C29</f>
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="R29" s="15" t="n">
         <f aca="false">K29-D29</f>
-        <v>215</v>
+        <v>-111</v>
       </c>
       <c r="S29" s="15" t="n">
         <f aca="false">L29-E29</f>
-        <v>5178</v>
+        <v>-64</v>
       </c>
       <c r="T29" s="15" t="n">
         <f aca="false">M29-F29</f>
-        <v>21122</v>
+        <v>-1270</v>
       </c>
       <c r="U29" s="15" t="n">
         <f aca="false">N29-G29</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6525,11 +7157,21 @@
       <c r="B30" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="15" t="n">
+        <v>73</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>115</v>
+      </c>
+      <c r="E30" s="15" t="n">
+        <v>1973</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>8465</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30" s="10" t="n">
         <v>3</v>
@@ -6556,23 +7198,23 @@
       </c>
       <c r="Q30" s="15" t="n">
         <f aca="false">J30-C30</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R30" s="15" t="n">
         <f aca="false">K30-D30</f>
-        <v>78</v>
+        <v>-37</v>
       </c>
       <c r="S30" s="15" t="n">
         <f aca="false">L30-E30</f>
-        <v>2035</v>
+        <v>62</v>
       </c>
       <c r="T30" s="15" t="n">
         <f aca="false">M30-F30</f>
-        <v>8359</v>
+        <v>-106</v>
       </c>
       <c r="U30" s="15" t="n">
         <f aca="false">N30-G30</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6582,11 +7224,21 @@
       <c r="B31" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="15" t="n">
+        <v>146</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>208</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>4288</v>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>18104</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="10" t="n">
         <v>9</v>
@@ -6613,23 +7265,23 @@
       </c>
       <c r="Q31" s="15" t="n">
         <f aca="false">J31-C31</f>
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="R31" s="15" t="n">
         <f aca="false">K31-D31</f>
-        <v>173</v>
+        <v>-35</v>
       </c>
       <c r="S31" s="15" t="n">
         <f aca="false">L31-E31</f>
-        <v>4220</v>
+        <v>-68</v>
       </c>
       <c r="T31" s="15" t="n">
         <f aca="false">M31-F31</f>
-        <v>16989</v>
+        <v>-1115</v>
       </c>
       <c r="U31" s="15" t="n">
         <f aca="false">N31-G31</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6639,11 +7291,21 @@
       <c r="B32" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>671</v>
+      </c>
+      <c r="F32" s="15" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G32" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" s="16"/>
       <c r="I32" s="10" t="n">
         <v>1</v>
@@ -6670,23 +7332,23 @@
       </c>
       <c r="Q32" s="15" t="n">
         <f aca="false">J32-C32</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R32" s="15" t="n">
         <f aca="false">K32-D32</f>
-        <v>25</v>
+        <v>-8</v>
       </c>
       <c r="S32" s="15" t="n">
         <f aca="false">L32-E32</f>
-        <v>674</v>
+        <v>3</v>
       </c>
       <c r="T32" s="15" t="n">
         <f aca="false">M32-F32</f>
-        <v>2823</v>
+        <v>-107</v>
       </c>
       <c r="U32" s="15" t="n">
         <f aca="false">N32-G32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6696,11 +7358,21 @@
       <c r="B33" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="C33" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>72</v>
+      </c>
+      <c r="E33" s="15" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="10" t="n">
         <v>4</v>
@@ -6727,23 +7399,23 @@
       </c>
       <c r="Q33" s="15" t="n">
         <f aca="false">J33-C33</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R33" s="15" t="n">
         <f aca="false">K33-D33</f>
-        <v>62</v>
+        <v>-10</v>
       </c>
       <c r="S33" s="15" t="n">
         <f aca="false">L33-E33</f>
-        <v>1321</v>
+        <v>-23</v>
       </c>
       <c r="T33" s="15" t="n">
         <f aca="false">M33-F33</f>
-        <v>5087</v>
+        <v>-337</v>
       </c>
       <c r="U33" s="15" t="n">
         <f aca="false">N33-G33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6753,11 +7425,21 @@
       <c r="B34" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="C34" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>177</v>
+      </c>
+      <c r="E34" s="15" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F34" s="15" t="n">
+        <v>13028</v>
+      </c>
+      <c r="G34" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="H34" s="16"/>
       <c r="I34" s="10" t="n">
         <v>7</v>
@@ -6784,23 +7466,23 @@
       </c>
       <c r="Q34" s="15" t="n">
         <f aca="false">J34-C34</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="R34" s="15" t="n">
         <f aca="false">K34-D34</f>
-        <v>124</v>
+        <v>-53</v>
       </c>
       <c r="S34" s="15" t="n">
         <f aca="false">L34-E34</f>
-        <v>3155</v>
+        <v>63</v>
       </c>
       <c r="T34" s="15" t="n">
         <f aca="false">M34-F34</f>
-        <v>12719</v>
+        <v>-309</v>
       </c>
       <c r="U34" s="15" t="n">
         <f aca="false">N34-G34</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6810,11 +7492,21 @@
       <c r="B35" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="C35" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>102</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>5550</v>
+      </c>
+      <c r="G35" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="10" t="n">
         <v>3</v>
@@ -6841,23 +7533,23 @@
       </c>
       <c r="Q35" s="15" t="n">
         <f aca="false">J35-C35</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R35" s="15" t="n">
         <f aca="false">K35-D35</f>
-        <v>56</v>
+        <v>-46</v>
       </c>
       <c r="S35" s="15" t="n">
         <f aca="false">L35-E35</f>
-        <v>1286</v>
+        <v>25</v>
       </c>
       <c r="T35" s="15" t="n">
         <f aca="false">M35-F35</f>
-        <v>5423</v>
+        <v>-127</v>
       </c>
       <c r="U35" s="15" t="n">
         <f aca="false">N35-G35</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6867,11 +7559,21 @@
       <c r="B36" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="E36" s="15" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F36" s="15" t="n">
+        <v>6354</v>
+      </c>
+      <c r="G36" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="10" t="n">
         <v>3</v>
@@ -6898,23 +7600,23 @@
       </c>
       <c r="Q36" s="15" t="n">
         <f aca="false">J36-C36</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R36" s="15" t="n">
         <f aca="false">K36-D36</f>
-        <v>71</v>
+        <v>-46</v>
       </c>
       <c r="S36" s="15" t="n">
         <f aca="false">L36-E36</f>
-        <v>1484</v>
+        <v>-17</v>
       </c>
       <c r="T36" s="15" t="n">
         <f aca="false">M36-F36</f>
-        <v>6217</v>
+        <v>-137</v>
       </c>
       <c r="U36" s="15" t="n">
         <f aca="false">N36-G36</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6924,11 +7626,21 @@
       <c r="B37" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>93</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>1617</v>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>7085</v>
+      </c>
+      <c r="G37" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H37" s="16"/>
       <c r="I37" s="10" t="n">
         <v>3</v>
@@ -6955,23 +7667,23 @@
       </c>
       <c r="Q37" s="15" t="n">
         <f aca="false">J37-C37</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R37" s="15" t="n">
         <f aca="false">K37-D37</f>
-        <v>55</v>
+        <v>-38</v>
       </c>
       <c r="S37" s="15" t="n">
         <f aca="false">L37-E37</f>
-        <v>1620</v>
+        <v>3</v>
       </c>
       <c r="T37" s="15" t="n">
         <f aca="false">M37-F37</f>
-        <v>6643</v>
+        <v>-442</v>
       </c>
       <c r="U37" s="15" t="n">
         <f aca="false">N37-G37</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6981,11 +7693,21 @@
       <c r="B38" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="C38" s="15" t="n">
+        <v>38</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F38" s="15" t="n">
+        <v>4967</v>
+      </c>
+      <c r="G38" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H38" s="16"/>
       <c r="I38" s="10" t="n">
         <v>2</v>
@@ -7012,23 +7734,23 @@
       </c>
       <c r="Q38" s="15" t="n">
         <f aca="false">J38-C38</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R38" s="15" t="n">
         <f aca="false">K38-D38</f>
-        <v>46</v>
+        <v>-6</v>
       </c>
       <c r="S38" s="15" t="n">
         <f aca="false">L38-E38</f>
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="T38" s="15" t="n">
         <f aca="false">M38-F38</f>
-        <v>4400</v>
+        <v>-567</v>
       </c>
       <c r="U38" s="15" t="n">
         <f aca="false">N38-G38</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7038,11 +7760,21 @@
       <c r="B39" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="C39" s="15" t="n">
+        <v>211</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>293</v>
+      </c>
+      <c r="E39" s="15" t="n">
+        <v>6299</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>26758</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>8</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="10" t="n">
         <v>14</v>
@@ -7069,23 +7801,23 @@
       </c>
       <c r="Q39" s="15" t="n">
         <f aca="false">J39-C39</f>
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="R39" s="15" t="n">
         <f aca="false">K39-D39</f>
-        <v>239</v>
+        <v>-54</v>
       </c>
       <c r="S39" s="15" t="n">
         <f aca="false">L39-E39</f>
-        <v>6445</v>
+        <v>146</v>
       </c>
       <c r="T39" s="15" t="n">
         <f aca="false">M39-F39</f>
-        <v>25549</v>
+        <v>-1209</v>
       </c>
       <c r="U39" s="15" t="n">
         <f aca="false">N39-G39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7095,11 +7827,21 @@
       <c r="B40" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="C40" s="15" t="n">
+        <v>55</v>
+      </c>
+      <c r="D40" s="15" t="n">
+        <v>102</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F40" s="15" t="n">
+        <v>8060</v>
+      </c>
+      <c r="G40" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H40" s="16"/>
       <c r="I40" s="10" t="n">
         <v>4</v>
@@ -7126,23 +7868,23 @@
       </c>
       <c r="Q40" s="15" t="n">
         <f aca="false">J40-C40</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R40" s="15" t="n">
         <f aca="false">K40-D40</f>
-        <v>87</v>
+        <v>-15</v>
       </c>
       <c r="S40" s="15" t="n">
         <f aca="false">L40-E40</f>
-        <v>1782</v>
+        <v>-94</v>
       </c>
       <c r="T40" s="15" t="n">
         <f aca="false">M40-F40</f>
-        <v>7125</v>
+        <v>-935</v>
       </c>
       <c r="U40" s="15" t="n">
         <f aca="false">N40-G40</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7152,11 +7894,21 @@
       <c r="B41" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="C41" s="15" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D41" s="15" t="n">
+        <v>1346</v>
+      </c>
+      <c r="E41" s="15" t="n">
+        <v>24224</v>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>101747</v>
+      </c>
+      <c r="G41" s="15" t="n">
+        <v>33</v>
+      </c>
       <c r="H41" s="16"/>
       <c r="I41" s="10" t="n">
         <v>28</v>
@@ -7183,23 +7935,23 @@
       </c>
       <c r="Q41" s="15" t="n">
         <f aca="false">J41-C41</f>
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="R41" s="15" t="n">
         <f aca="false">K41-D41</f>
-        <v>1221</v>
+        <v>-125</v>
       </c>
       <c r="S41" s="15" t="n">
         <f aca="false">L41-E41</f>
-        <v>23717</v>
+        <v>-507</v>
       </c>
       <c r="T41" s="15" t="n">
         <f aca="false">M41-F41</f>
-        <v>96656</v>
+        <v>-5091</v>
       </c>
       <c r="U41" s="15" t="n">
         <f aca="false">N41-G41</f>
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7209,11 +7961,21 @@
       <c r="B42" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="C42" s="15" t="n">
+        <v>666</v>
+      </c>
+      <c r="D42" s="15" t="n">
+        <v>834</v>
+      </c>
+      <c r="E42" s="15" t="n">
+        <v>15064</v>
+      </c>
+      <c r="F42" s="15" t="n">
+        <v>62679</v>
+      </c>
+      <c r="G42" s="15" t="n">
+        <v>21</v>
+      </c>
       <c r="H42" s="16"/>
       <c r="I42" s="10" t="n">
         <v>16</v>
@@ -7240,23 +8002,23 @@
       </c>
       <c r="Q42" s="15" t="n">
         <f aca="false">J42-C42</f>
-        <v>678</v>
+        <v>12</v>
       </c>
       <c r="R42" s="15" t="n">
         <f aca="false">K42-D42</f>
-        <v>777</v>
+        <v>-57</v>
       </c>
       <c r="S42" s="15" t="n">
         <f aca="false">L42-E42</f>
-        <v>15192</v>
+        <v>128</v>
       </c>
       <c r="T42" s="15" t="n">
         <f aca="false">M42-F42</f>
-        <v>61338</v>
+        <v>-1341</v>
       </c>
       <c r="U42" s="15" t="n">
         <f aca="false">N42-G42</f>
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7266,11 +8028,21 @@
       <c r="B43" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="15" t="n">
+        <v>1151</v>
+      </c>
+      <c r="D43" s="15" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E43" s="15" t="n">
+        <v>26249</v>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>109644</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>36</v>
+      </c>
       <c r="H43" s="16"/>
       <c r="I43" s="10" t="n">
         <v>24</v>
@@ -7297,23 +8069,23 @@
       </c>
       <c r="Q43" s="15" t="n">
         <f aca="false">J43-C43</f>
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="R43" s="15" t="n">
         <f aca="false">K43-D43</f>
-        <v>1310</v>
+        <v>-122</v>
       </c>
       <c r="S43" s="15" t="n">
         <f aca="false">L43-E43</f>
-        <v>25999</v>
+        <v>-250</v>
       </c>
       <c r="T43" s="15" t="n">
         <f aca="false">M43-F43</f>
-        <v>104336</v>
+        <v>-5308</v>
       </c>
       <c r="U43" s="15" t="n">
         <f aca="false">N43-G43</f>
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7323,11 +8095,21 @@
       <c r="B44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="C44" s="15" t="n">
+        <v>867</v>
+      </c>
+      <c r="D44" s="15" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>20137</v>
+      </c>
+      <c r="F44" s="15" t="n">
+        <v>80701</v>
+      </c>
+      <c r="G44" s="15" t="n">
+        <v>26</v>
+      </c>
       <c r="H44" s="16"/>
       <c r="I44" s="10" t="n">
         <v>21</v>
@@ -7354,23 +8136,23 @@
       </c>
       <c r="Q44" s="15" t="n">
         <f aca="false">J44-C44</f>
-        <v>879</v>
+        <v>12</v>
       </c>
       <c r="R44" s="15" t="n">
         <f aca="false">K44-D44</f>
-        <v>1034</v>
+        <v>-71</v>
       </c>
       <c r="S44" s="15" t="n">
         <f aca="false">L44-E44</f>
-        <v>19146</v>
+        <v>-991</v>
       </c>
       <c r="T44" s="15" t="n">
         <f aca="false">M44-F44</f>
-        <v>75533</v>
+        <v>-5168</v>
       </c>
       <c r="U44" s="15" t="n">
         <f aca="false">N44-G44</f>
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7380,11 +8162,21 @@
       <c r="B45" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="C45" s="15" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D45" s="15" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E45" s="15" t="n">
+        <v>25130</v>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>109462</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>35</v>
+      </c>
       <c r="H45" s="16"/>
       <c r="I45" s="10" t="n">
         <v>28</v>
@@ -7411,23 +8203,23 @@
       </c>
       <c r="Q45" s="15" t="n">
         <f aca="false">J45-C45</f>
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="R45" s="15" t="n">
         <f aca="false">K45-D45</f>
-        <v>1099</v>
+        <v>-98</v>
       </c>
       <c r="S45" s="15" t="n">
         <f aca="false">L45-E45</f>
-        <v>24277</v>
+        <v>-853</v>
       </c>
       <c r="T45" s="15" t="n">
         <f aca="false">M45-F45</f>
-        <v>101726</v>
+        <v>-7736</v>
       </c>
       <c r="U45" s="15" t="n">
         <f aca="false">N45-G45</f>
-        <v>33</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7437,11 +8229,21 @@
       <c r="B46" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="C46" s="15" t="n">
+        <v>433</v>
+      </c>
+      <c r="D46" s="15" t="n">
+        <v>563</v>
+      </c>
+      <c r="E46" s="15" t="n">
+        <v>10399</v>
+      </c>
+      <c r="F46" s="15" t="n">
+        <v>43964</v>
+      </c>
+      <c r="G46" s="15" t="n">
+        <v>15</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="10" t="n">
         <v>16</v>
@@ -7468,23 +8270,23 @@
       </c>
       <c r="Q46" s="15" t="n">
         <f aca="false">J46-C46</f>
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="R46" s="15" t="n">
         <f aca="false">K46-D46</f>
-        <v>536</v>
+        <v>-27</v>
       </c>
       <c r="S46" s="15" t="n">
         <f aca="false">L46-E46</f>
-        <v>9454</v>
+        <v>-945</v>
       </c>
       <c r="T46" s="15" t="n">
         <f aca="false">M46-F46</f>
-        <v>39320</v>
+        <v>-4644</v>
       </c>
       <c r="U46" s="15" t="n">
         <f aca="false">N46-G46</f>
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7494,11 +8296,21 @@
       <c r="B47" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="C47" s="15" t="n">
+        <v>437</v>
+      </c>
+      <c r="D47" s="15" t="n">
+        <v>578</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>10206</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>41432</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>13</v>
+      </c>
       <c r="H47" s="16"/>
       <c r="I47" s="10" t="n">
         <v>16</v>
@@ -7525,23 +8337,23 @@
       </c>
       <c r="Q47" s="15" t="n">
         <f aca="false">J47-C47</f>
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="R47" s="15" t="n">
         <f aca="false">K47-D47</f>
-        <v>528</v>
+        <v>-50</v>
       </c>
       <c r="S47" s="15" t="n">
         <f aca="false">L47-E47</f>
-        <v>9474</v>
+        <v>-732</v>
       </c>
       <c r="T47" s="15" t="n">
         <f aca="false">M47-F47</f>
-        <v>37943</v>
+        <v>-3489</v>
       </c>
       <c r="U47" s="15" t="n">
         <f aca="false">N47-G47</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7551,11 +8363,21 @@
       <c r="B48" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="C48" s="15" t="n">
+        <v>257</v>
+      </c>
+      <c r="D48" s="15" t="n">
+        <v>327</v>
+      </c>
+      <c r="E48" s="15" t="n">
+        <v>6659</v>
+      </c>
+      <c r="F48" s="15" t="n">
+        <v>27751</v>
+      </c>
+      <c r="G48" s="15" t="n">
+        <v>9</v>
+      </c>
       <c r="H48" s="16"/>
       <c r="I48" s="10" t="n">
         <v>13</v>
@@ -7582,23 +8404,23 @@
       </c>
       <c r="Q48" s="15" t="n">
         <f aca="false">J48-C48</f>
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="R48" s="15" t="n">
         <f aca="false">K48-D48</f>
-        <v>287</v>
+        <v>-40</v>
       </c>
       <c r="S48" s="15" t="n">
         <f aca="false">L48-E48</f>
-        <v>6089</v>
+        <v>-570</v>
       </c>
       <c r="T48" s="15" t="n">
         <f aca="false">M48-F48</f>
-        <v>24982</v>
+        <v>-2769</v>
       </c>
       <c r="U48" s="15" t="n">
         <f aca="false">N48-G48</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7608,11 +8430,21 @@
       <c r="B49" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="C49" s="15" t="n">
+        <v>149</v>
+      </c>
+      <c r="D49" s="15" t="n">
+        <v>178</v>
+      </c>
+      <c r="E49" s="15" t="n">
+        <v>3477</v>
+      </c>
+      <c r="F49" s="15" t="n">
+        <v>14597</v>
+      </c>
+      <c r="G49" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="H49" s="16"/>
       <c r="I49" s="10" t="n">
         <v>6</v>
@@ -7639,23 +8471,23 @@
       </c>
       <c r="Q49" s="15" t="n">
         <f aca="false">J49-C49</f>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="R49" s="15" t="n">
         <f aca="false">K49-D49</f>
-        <v>162</v>
+        <v>-16</v>
       </c>
       <c r="S49" s="15" t="n">
         <f aca="false">L49-E49</f>
-        <v>3092</v>
+        <v>-385</v>
       </c>
       <c r="T49" s="15" t="n">
         <f aca="false">M49-F49</f>
-        <v>12652</v>
+        <v>-1945</v>
       </c>
       <c r="U49" s="15" t="n">
         <f aca="false">N49-G49</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7665,11 +8497,21 @@
       <c r="B50" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="C50" s="15" t="n">
+        <v>155</v>
+      </c>
+      <c r="D50" s="15" t="n">
+        <v>167</v>
+      </c>
+      <c r="E50" s="15" t="n">
+        <v>3429</v>
+      </c>
+      <c r="F50" s="15" t="n">
+        <v>14740</v>
+      </c>
+      <c r="G50" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="H50" s="16"/>
       <c r="I50" s="10" t="n">
         <v>6</v>
@@ -7696,23 +8538,23 @@
       </c>
       <c r="Q50" s="15" t="n">
         <f aca="false">J50-C50</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="R50" s="15" t="n">
         <f aca="false">K50-D50</f>
-        <v>158</v>
+        <v>-9</v>
       </c>
       <c r="S50" s="15" t="n">
         <f aca="false">L50-E50</f>
-        <v>3030</v>
+        <v>-399</v>
       </c>
       <c r="T50" s="15" t="n">
         <f aca="false">M50-F50</f>
-        <v>12832</v>
+        <v>-1908</v>
       </c>
       <c r="U50" s="15" t="n">
         <f aca="false">N50-G50</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7722,11 +8564,21 @@
       <c r="B51" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="C51" s="15" t="n">
+        <v>104</v>
+      </c>
+      <c r="D51" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="E51" s="15" t="n">
+        <v>2519</v>
+      </c>
+      <c r="F51" s="15" t="n">
+        <v>10559</v>
+      </c>
+      <c r="G51" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H51" s="16"/>
       <c r="I51" s="10" t="n">
         <v>4</v>
@@ -7753,23 +8605,23 @@
       </c>
       <c r="Q51" s="15" t="n">
         <f aca="false">J51-C51</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="R51" s="15" t="n">
         <f aca="false">K51-D51</f>
-        <v>111</v>
+        <v>-8</v>
       </c>
       <c r="S51" s="15" t="n">
         <f aca="false">L51-E51</f>
-        <v>2185</v>
+        <v>-334</v>
       </c>
       <c r="T51" s="15" t="n">
         <f aca="false">M51-F51</f>
-        <v>9031</v>
+        <v>-1528</v>
       </c>
       <c r="U51" s="15" t="n">
         <f aca="false">N51-G51</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7779,11 +8631,21 @@
       <c r="B52" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="C52" s="15" t="n">
+        <v>95</v>
+      </c>
+      <c r="D52" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="E52" s="15" t="n">
+        <v>2294</v>
+      </c>
+      <c r="F52" s="15" t="n">
+        <v>10032</v>
+      </c>
+      <c r="G52" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="10" t="n">
         <v>4</v>
@@ -7810,23 +8672,23 @@
       </c>
       <c r="Q52" s="15" t="n">
         <f aca="false">J52-C52</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R52" s="15" t="n">
         <f aca="false">K52-D52</f>
-        <v>100</v>
+        <v>-13</v>
       </c>
       <c r="S52" s="15" t="n">
         <f aca="false">L52-E52</f>
-        <v>1983</v>
+        <v>-311</v>
       </c>
       <c r="T52" s="15" t="n">
         <f aca="false">M52-F52</f>
-        <v>8422</v>
+        <v>-1610</v>
       </c>
       <c r="U52" s="15" t="n">
         <f aca="false">N52-G52</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7836,11 +8698,21 @@
       <c r="B53" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="C53" s="15" t="n">
+        <v>89</v>
+      </c>
+      <c r="D53" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F53" s="15" t="n">
+        <v>8410</v>
+      </c>
+      <c r="G53" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H53" s="16"/>
       <c r="I53" s="10" t="n">
         <v>5</v>
@@ -7867,23 +8739,23 @@
       </c>
       <c r="Q53" s="15" t="n">
         <f aca="false">J53-C53</f>
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R53" s="15" t="n">
         <f aca="false">K53-D53</f>
-        <v>92</v>
+        <v>-8</v>
       </c>
       <c r="S53" s="15" t="n">
         <f aca="false">L53-E53</f>
-        <v>1837</v>
+        <v>-185</v>
       </c>
       <c r="T53" s="15" t="n">
         <f aca="false">M53-F53</f>
-        <v>7543</v>
+        <v>-867</v>
       </c>
       <c r="U53" s="15" t="n">
         <f aca="false">N53-G53</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7893,11 +8765,21 @@
       <c r="B54" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="C54" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="D54" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" s="15" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F54" s="15" t="n">
+        <v>4989</v>
+      </c>
+      <c r="G54" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H54" s="16"/>
       <c r="I54" s="10" t="n">
         <v>3</v>
@@ -7924,23 +8806,23 @@
       </c>
       <c r="Q54" s="15" t="n">
         <f aca="false">J54-C54</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R54" s="15" t="n">
         <f aca="false">K54-D54</f>
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="S54" s="15" t="n">
         <f aca="false">L54-E54</f>
-        <v>1024</v>
+        <v>-146</v>
       </c>
       <c r="T54" s="15" t="n">
         <f aca="false">M54-F54</f>
-        <v>4277</v>
+        <v>-712</v>
       </c>
       <c r="U54" s="15" t="n">
         <f aca="false">N54-G54</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7950,11 +8832,21 @@
       <c r="B55" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="C55" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="D55" s="15" t="n">
+        <v>132</v>
+      </c>
+      <c r="E55" s="15" t="n">
+        <v>2588</v>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>11687</v>
+      </c>
+      <c r="G55" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="10" t="n">
         <v>6</v>
@@ -7981,23 +8873,23 @@
       </c>
       <c r="Q55" s="15" t="n">
         <f aca="false">J55-C55</f>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="R55" s="15" t="n">
         <f aca="false">K55-D55</f>
-        <v>119</v>
+        <v>-13</v>
       </c>
       <c r="S55" s="15" t="n">
         <f aca="false">L55-E55</f>
-        <v>2251</v>
+        <v>-337</v>
       </c>
       <c r="T55" s="15" t="n">
         <f aca="false">M55-F55</f>
-        <v>10068</v>
+        <v>-1619</v>
       </c>
       <c r="U55" s="15" t="n">
         <f aca="false">N55-G55</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8007,11 +8899,21 @@
       <c r="B56" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="C56" s="15" t="n">
+        <v>83</v>
+      </c>
+      <c r="D56" s="15" t="n">
+        <v>97</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F56" s="15" t="n">
+        <v>8136</v>
+      </c>
+      <c r="G56" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H56" s="16"/>
       <c r="I56" s="10" t="n">
         <v>4</v>
@@ -8038,23 +8940,23 @@
       </c>
       <c r="Q56" s="15" t="n">
         <f aca="false">J56-C56</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R56" s="15" t="n">
         <f aca="false">K56-D56</f>
-        <v>89</v>
+        <v>-8</v>
       </c>
       <c r="S56" s="15" t="n">
         <f aca="false">L56-E56</f>
-        <v>1667</v>
+        <v>-145</v>
       </c>
       <c r="T56" s="15" t="n">
         <f aca="false">M56-F56</f>
-        <v>7246</v>
+        <v>-890</v>
       </c>
       <c r="U56" s="15" t="n">
         <f aca="false">N56-G56</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8064,11 +8966,21 @@
       <c r="B57" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+      <c r="C57" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="D57" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F57" s="15" t="n">
+        <v>4743</v>
+      </c>
+      <c r="G57" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="H57" s="16"/>
       <c r="I57" s="10" t="n">
         <v>3</v>
@@ -8095,23 +9007,23 @@
       </c>
       <c r="Q57" s="15" t="n">
         <f aca="false">J57-C57</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R57" s="15" t="n">
         <f aca="false">K57-D57</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S57" s="15" t="n">
         <f aca="false">L57-E57</f>
-        <v>898</v>
+        <v>-147</v>
       </c>
       <c r="T57" s="15" t="n">
         <f aca="false">M57-F57</f>
-        <v>4067</v>
+        <v>-676</v>
       </c>
       <c r="U57" s="15" t="n">
         <f aca="false">N57-G57</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8121,11 +9033,21 @@
       <c r="B58" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="C58" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D58" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>512</v>
+      </c>
+      <c r="F58" s="15" t="n">
+        <v>2056</v>
+      </c>
+      <c r="G58" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="H58" s="16"/>
       <c r="I58" s="10" t="n">
         <v>1</v>
@@ -8152,23 +9074,23 @@
       </c>
       <c r="Q58" s="15" t="n">
         <f aca="false">J58-C58</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R58" s="15" t="n">
         <f aca="false">K58-D58</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="S58" s="15" t="n">
         <f aca="false">L58-E58</f>
-        <v>430</v>
+        <v>-82</v>
       </c>
       <c r="T58" s="15" t="n">
         <f aca="false">M58-F58</f>
-        <v>1817</v>
+        <v>-239</v>
       </c>
       <c r="U58" s="15" t="n">
         <f aca="false">N58-G58</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8178,11 +9100,21 @@
       <c r="B59" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="C59" s="15" t="n">
+        <v>303</v>
+      </c>
+      <c r="D59" s="15" t="n">
+        <v>339</v>
+      </c>
+      <c r="E59" s="15" t="n">
+        <v>7573</v>
+      </c>
+      <c r="F59" s="15" t="n">
+        <v>32699</v>
+      </c>
+      <c r="G59" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="H59" s="16"/>
       <c r="I59" s="10" t="n">
         <v>13</v>
@@ -8209,23 +9141,23 @@
       </c>
       <c r="Q59" s="15" t="n">
         <f aca="false">J59-C59</f>
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="R59" s="15" t="n">
         <f aca="false">K59-D59</f>
-        <v>319</v>
+        <v>-20</v>
       </c>
       <c r="S59" s="15" t="n">
         <f aca="false">L59-E59</f>
-        <v>6915</v>
+        <v>-658</v>
       </c>
       <c r="T59" s="15" t="n">
         <f aca="false">M59-F59</f>
-        <v>29336</v>
+        <v>-3363</v>
       </c>
       <c r="U59" s="15" t="n">
         <f aca="false">N59-G59</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8235,11 +9167,21 @@
       <c r="B60" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="C60" s="15" t="n">
+        <v>108</v>
+      </c>
+      <c r="D60" s="15" t="n">
+        <v>152</v>
+      </c>
+      <c r="E60" s="15" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F60" s="15" t="n">
+        <v>10479</v>
+      </c>
+      <c r="G60" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H60" s="16"/>
       <c r="I60" s="10" t="n">
         <v>5</v>
@@ -8266,23 +9208,23 @@
       </c>
       <c r="Q60" s="15" t="n">
         <f aca="false">J60-C60</f>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R60" s="15" t="n">
         <f aca="false">K60-D60</f>
-        <v>134</v>
+        <v>-18</v>
       </c>
       <c r="S60" s="15" t="n">
         <f aca="false">L60-E60</f>
-        <v>2307</v>
+        <v>-189</v>
       </c>
       <c r="T60" s="15" t="n">
         <f aca="false">M60-F60</f>
-        <v>9433</v>
+        <v>-1046</v>
       </c>
       <c r="U60" s="15" t="n">
         <f aca="false">N60-G60</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8292,11 +9234,21 @@
       <c r="B61" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="C61" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="D61" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="E61" s="15" t="n">
+        <v>2661</v>
+      </c>
+      <c r="F61" s="15" t="n">
+        <v>11675</v>
+      </c>
+      <c r="G61" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="H61" s="16"/>
       <c r="I61" s="10" t="n">
         <v>5</v>
@@ -8323,23 +9275,23 @@
       </c>
       <c r="Q61" s="15" t="n">
         <f aca="false">J61-C61</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="R61" s="15" t="n">
         <f aca="false">K61-D61</f>
-        <v>116</v>
+        <v>-12</v>
       </c>
       <c r="S61" s="15" t="n">
         <f aca="false">L61-E61</f>
-        <v>2478</v>
+        <v>-183</v>
       </c>
       <c r="T61" s="15" t="n">
         <f aca="false">M61-F61</f>
-        <v>10589</v>
+        <v>-1086</v>
       </c>
       <c r="U61" s="15" t="n">
         <f aca="false">N61-G61</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8349,11 +9301,21 @@
       <c r="B62" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
+      <c r="C62" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" s="15" t="n">
+        <v>73</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>1681</v>
+      </c>
+      <c r="F62" s="15" t="n">
+        <v>7657</v>
+      </c>
+      <c r="G62" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H62" s="16"/>
       <c r="I62" s="10" t="n">
         <v>3</v>
@@ -8380,23 +9342,23 @@
       </c>
       <c r="Q62" s="15" t="n">
         <f aca="false">J62-C62</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="R62" s="15" t="n">
         <f aca="false">K62-D62</f>
-        <v>66</v>
+        <v>-7</v>
       </c>
       <c r="S62" s="15" t="n">
         <f aca="false">L62-E62</f>
-        <v>1557</v>
+        <v>-124</v>
       </c>
       <c r="T62" s="15" t="n">
         <f aca="false">M62-F62</f>
-        <v>6940</v>
+        <v>-717</v>
       </c>
       <c r="U62" s="15" t="n">
         <f aca="false">N62-G62</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8406,11 +9368,21 @@
       <c r="B63" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="C63" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="D63" s="15" t="n">
+        <v>142</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>2802</v>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>11293</v>
+      </c>
+      <c r="G63" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="H63" s="16"/>
       <c r="I63" s="10" t="n">
         <v>5</v>
@@ -8437,23 +9409,23 @@
       </c>
       <c r="Q63" s="15" t="n">
         <f aca="false">J63-C63</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="R63" s="15" t="n">
         <f aca="false">K63-D63</f>
-        <v>126</v>
+        <v>-16</v>
       </c>
       <c r="S63" s="15" t="n">
         <f aca="false">L63-E63</f>
-        <v>2519</v>
+        <v>-283</v>
       </c>
       <c r="T63" s="15" t="n">
         <f aca="false">M63-F63</f>
-        <v>9848</v>
+        <v>-1445</v>
       </c>
       <c r="U63" s="15" t="n">
         <f aca="false">N63-G63</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8463,11 +9435,21 @@
       <c r="B64" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="C64" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D64" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E64" s="15" t="n">
+        <v>342</v>
+      </c>
+      <c r="F64" s="15" t="n">
+        <v>1352</v>
+      </c>
+      <c r="G64" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="10" t="n">
         <v>1</v>
@@ -8494,23 +9476,23 @@
       </c>
       <c r="Q64" s="15" t="n">
         <f aca="false">J64-C64</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R64" s="15" t="n">
         <f aca="false">K64-D64</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S64" s="15" t="n">
         <f aca="false">L64-E64</f>
-        <v>298</v>
+        <v>-44</v>
       </c>
       <c r="T64" s="15" t="n">
         <f aca="false">M64-F64</f>
-        <v>1204</v>
+        <v>-148</v>
       </c>
       <c r="U64" s="15" t="n">
         <f aca="false">N64-G64</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8520,11 +9502,21 @@
       <c r="B65" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="C65" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E65" s="15" t="n">
+        <v>354</v>
+      </c>
+      <c r="F65" s="15" t="n">
+        <v>1465</v>
+      </c>
+      <c r="G65" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" s="16"/>
       <c r="I65" s="10" t="n">
         <v>1</v>
@@ -8551,19 +9543,19 @@
       </c>
       <c r="Q65" s="15" t="n">
         <f aca="false">J65-C65</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R65" s="15" t="n">
         <f aca="false">K65-D65</f>
-        <v>18</v>
+        <v>-4</v>
       </c>
       <c r="S65" s="15" t="n">
         <f aca="false">L65-E65</f>
-        <v>294</v>
+        <v>-60</v>
       </c>
       <c r="T65" s="15" t="n">
         <f aca="false">M65-F65</f>
-        <v>1250</v>
+        <v>-215</v>
       </c>
       <c r="U65" s="15" t="n">
         <f aca="false">N65-G65</f>
@@ -8577,11 +9569,21 @@
       <c r="B66" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="C66" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E66" s="15" t="n">
+        <v>719</v>
+      </c>
+      <c r="F66" s="15" t="n">
+        <v>3290</v>
+      </c>
+      <c r="G66" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="H66" s="16"/>
       <c r="I66" s="10" t="n">
         <v>1</v>
@@ -8608,23 +9610,23 @@
       </c>
       <c r="Q66" s="15" t="n">
         <f aca="false">J66-C66</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R66" s="15" t="n">
         <f aca="false">K66-D66</f>
-        <v>27</v>
+        <v>-2</v>
       </c>
       <c r="S66" s="15" t="n">
         <f aca="false">L66-E66</f>
-        <v>609</v>
+        <v>-110</v>
       </c>
       <c r="T66" s="15" t="n">
         <f aca="false">M66-F66</f>
-        <v>2812</v>
+        <v>-478</v>
       </c>
       <c r="U66" s="15" t="n">
         <f aca="false">N66-G66</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8634,11 +9636,21 @@
       <c r="B67" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
+      <c r="C67" s="15" t="n">
+        <v>404</v>
+      </c>
+      <c r="D67" s="15" t="n">
+        <v>551</v>
+      </c>
+      <c r="E67" s="15" t="n">
+        <v>12435</v>
+      </c>
+      <c r="F67" s="15" t="n">
+        <v>50768</v>
+      </c>
+      <c r="G67" s="15" t="n">
+        <v>17</v>
+      </c>
       <c r="H67" s="16"/>
       <c r="I67" s="10" t="n">
         <v>22</v>
@@ -8665,46 +9677,52 @@
       </c>
       <c r="Q67" s="15" t="n">
         <f aca="false">J67-C67</f>
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="R67" s="15" t="n">
         <f aca="false">K67-D67</f>
-        <v>460</v>
+        <v>-91</v>
       </c>
       <c r="S67" s="15" t="n">
         <f aca="false">L67-E67</f>
-        <v>12003</v>
+        <v>-432</v>
       </c>
       <c r="T67" s="15" t="n">
         <f aca="false">M67-F67</f>
-        <v>48251</v>
+        <v>-2517</v>
       </c>
       <c r="U67" s="15" t="n">
         <f aca="false">N67-G67</f>
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="14" t="n">
-        <v>1192</v>
+      <c r="B68" s="15" t="n">
+        <f aca="false">SUM(B2:B67)</f>
+        <v>1189</v>
       </c>
       <c r="C68" s="15" t="n">
-        <v>17654</v>
+        <f aca="false">SUM(C2:C67)</f>
+        <v>31077</v>
       </c>
       <c r="D68" s="15" t="n">
-        <v>23349</v>
+        <f aca="false">SUM(D2:D67)</f>
+        <v>42029</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>435354</v>
+        <f aca="false">SUM(E2:E67)</f>
+        <v>789104</v>
       </c>
       <c r="F68" s="15" t="n">
-        <v>1881744</v>
+        <f aca="false">SUM(F2:F67)</f>
+        <v>3380746</v>
       </c>
       <c r="G68" s="15" t="n">
-        <v>609</v>
+        <f aca="false">SUM(G2:G67)</f>
+        <v>1095</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="10" t="n">
@@ -8738,23 +9756,23 @@
       </c>
       <c r="Q68" s="10" t="n">
         <f aca="false">SUM(Q2:Q67)</f>
-        <v>13448</v>
+        <v>25</v>
       </c>
       <c r="R68" s="10" t="n">
         <f aca="false">SUM(R2:R67)</f>
-        <v>11700</v>
+        <v>-6980</v>
       </c>
       <c r="S68" s="10" t="n">
         <f aca="false">SUM(S2:S67)</f>
-        <v>355219</v>
+        <v>1469</v>
       </c>
       <c r="T68" s="10" t="n">
         <f aca="false">SUM(T2:T67)</f>
-        <v>1341457</v>
+        <v>-157545</v>
       </c>
       <c r="U68" s="10" t="n">
         <f aca="false">SUM(U2:U67)</f>
-        <v>452</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/bible/nwt_xml/content.xlsx
+++ b/bible/nwt_xml/content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nwt" sheetId="1" state="visible" r:id="rId3"/>
@@ -670,12 +670,12 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="B2:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1976,7 +1976,7 @@
         <v>208</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>4288</v>
+        <v>4255</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>18104</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="M31" s="7" t="n">
         <f aca="false">H31/L31</f>
-        <v>142.933333333333</v>
+        <v>141.833333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3275,7 +3275,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H62" s="6" t="n">
         <v>1681</v>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="G68" s="6" t="n">
         <f aca="false">SUM(G2:G67)</f>
-        <v>42029</v>
+        <v>42032</v>
       </c>
       <c r="H68" s="6" t="n">
         <f aca="false">SUM(H2:H67)</f>
-        <v>789104</v>
+        <v>789071</v>
       </c>
       <c r="I68" s="6" t="n">
         <f aca="false">SUM(I2:I67)</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="M68" s="7" t="n">
         <f aca="false">H68/L68</f>
-        <v>142.104087880425</v>
+        <v>142.098145146768</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3578,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="1" sqref="B2:F67 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5180,12 +5180,12 @@
   </sheetPr>
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7231,7 +7231,7 @@
         <v>208</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>4288</v>
+        <v>4255</v>
       </c>
       <c r="F31" s="15" t="n">
         <v>18104</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="S31" s="15" t="n">
         <f aca="false">L31-E31</f>
-        <v>-68</v>
+        <v>-35</v>
       </c>
       <c r="T31" s="15" t="n">
         <f aca="false">M31-F31</f>
@@ -9305,7 +9305,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="15" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E62" s="15" t="n">
         <v>1681</v>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="R62" s="15" t="n">
         <f aca="false">K62-D62</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="S62" s="15" t="n">
         <f aca="false">L62-E62</f>
@@ -9710,11 +9710,11 @@
       </c>
       <c r="D68" s="15" t="n">
         <f aca="false">SUM(D2:D67)</f>
-        <v>42029</v>
+        <v>42032</v>
       </c>
       <c r="E68" s="15" t="n">
         <f aca="false">SUM(E2:E67)</f>
-        <v>789104</v>
+        <v>789071</v>
       </c>
       <c r="F68" s="15" t="n">
         <f aca="false">SUM(F2:F67)</f>
@@ -9760,11 +9760,11 @@
       </c>
       <c r="R68" s="10" t="n">
         <f aca="false">SUM(R2:R67)</f>
-        <v>-6980</v>
+        <v>-6983</v>
       </c>
       <c r="S68" s="10" t="n">
         <f aca="false">SUM(S2:S67)</f>
-        <v>1469</v>
+        <v>1502</v>
       </c>
       <c r="T68" s="10" t="n">
         <f aca="false">SUM(T2:T67)</f>
